--- a/Unity/DesignDoc/Missions.xlsx
+++ b/Unity/DesignDoc/Missions.xlsx
@@ -214,9 +214,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -225,6 +222,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -239,7 +239,7 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -260,7 +260,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -306,15 +306,15 @@
     <sortCondition ref="C3:C19"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="Sr.No" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="0"/>
-    <tableColumn id="11" name="Single Run?" dataDxfId="1"/>
-    <tableColumn id="10" name="VAL 1" dataDxfId="8"/>
-    <tableColumn id="9" name="VAL 2" dataDxfId="7"/>
-    <tableColumn id="8" name="VAL 3" dataDxfId="6"/>
-    <tableColumn id="7" name="VAL 4" dataDxfId="5"/>
-    <tableColumn id="6" name="VAL 42" dataDxfId="4"/>
-    <tableColumn id="3" name="Token Reward" dataDxfId="3"/>
+    <tableColumn id="1" name="Sr.No" dataDxfId="8"/>
+    <tableColumn id="2" name="Description" dataDxfId="7"/>
+    <tableColumn id="11" name="Single Run?" dataDxfId="6"/>
+    <tableColumn id="10" name="VAL 1" dataDxfId="5"/>
+    <tableColumn id="9" name="VAL 2" dataDxfId="4"/>
+    <tableColumn id="8" name="VAL 3" dataDxfId="3"/>
+    <tableColumn id="7" name="VAL 4" dataDxfId="2"/>
+    <tableColumn id="6" name="VAL 42" dataDxfId="1"/>
+    <tableColumn id="3" name="Token Reward" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -645,31 +645,32 @@
   <dimension ref="A2:J505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -706,7 +707,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -736,7 +737,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -766,7 +767,7 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -796,7 +797,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -826,7 +827,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -856,7 +857,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -886,7 +887,7 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -916,7 +917,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -946,7 +947,7 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -976,7 +977,7 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1006,7 +1007,7 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1036,7 +1037,7 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1066,7 +1067,7 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1096,7 +1097,7 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1126,7 +1127,7 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1156,7 +1157,7 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1184,9 +1185,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1196,20 +1195,20 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>30</v>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1.8560000000000001</v>
-      </c>
-      <c r="E21" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="E21" s="6">
         <f>C21^$D$21</f>
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f>E21*100</f>
         <v>100</v>
       </c>
@@ -1219,4206 +1218,4209 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>31</v>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <f t="shared" ref="E22:E38" si="0">C22^$D$21</f>
-        <v>3.6200258515316213</v>
-      </c>
-      <c r="F22" s="7">
+        <v>3.0525184179211182</v>
+      </c>
+      <c r="F22" s="6">
         <f t="shared" ref="F22:F85" si="1">E22*100</f>
-        <v>362.0025851531621</v>
+        <v>305.2518417921118</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>32</v>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>7.6831099589802125</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="1"/>
-        <v>768.31099589802125</v>
+        <v>5.8636119343257427</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>586.36119343257428</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>13.104587165757241</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="1"/>
-        <v>1310.4587165757241</v>
+        <v>9.3178686917476465</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>931.78686917476466</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>19.828429981174452</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="1"/>
-        <v>1982.8429981174452</v>
+        <v>13.345710722412425</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>1334.5710722412425</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>27.813056671668431</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="1"/>
-        <v>2781.3056671668433</v>
+        <v>17.8987834250714</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>1789.8783425071401</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>7</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>37.025587831812224</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="1"/>
-        <v>3702.5587831812222</v>
+        <v>22.940762269357794</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>2294.0762269357792</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>8</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>47.438944313690726</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="1"/>
-        <v>4743.8944313690727</v>
+        <v>28.442965797330242</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>2844.2965797330244</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>9</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>59.030178641780914</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="1"/>
-        <v>5903.0178641780913</v>
+        <v>34.381944916367274</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>3438.1944916367274</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>10</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>71.779429127136225</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="1"/>
-        <v>7177.9429127136227</v>
+        <v>40.738027780411301</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>4073.8027780411303</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>11</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>85.669222148872635</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="1"/>
-        <v>8566.9222148872632</v>
+        <v>47.494380045315346</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>4749.4380045315347</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>12</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
-        <v>100.68398416155378</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="1"/>
-        <v>10068.398416155378</v>
+        <v>54.636366063411707</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>5463.6366063411706</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>13</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
-        <v>116.80968744968261</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="1"/>
-        <v>11680.968744968261</v>
+        <v>62.151096805305343</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
+        <v>6215.1096805305342</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>14</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
-        <v>134.03358511931492</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="1"/>
-        <v>13403.358511931492</v>
+        <v>70.027099348364558</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="1"/>
+        <v>7002.7099348364554</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>15</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
-        <v>152.34400785930325</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="1"/>
-        <v>15234.400785930324</v>
+        <v>78.254068663996549</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>7825.406866399655</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>16</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
-        <v>171.73020478492938</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="1"/>
-        <v>17173.020478492937</v>
+        <v>86.822676956650994</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="1"/>
+        <v>8682.2676956650994</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>17</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="0"/>
-        <v>192.18221656294139</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="1"/>
-        <v>19218.221656294139</v>
+        <v>95.724424365871229</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="1"/>
+        <v>9572.4424365871237</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>18</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="0"/>
-        <v>213.69077270377664</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" si="1"/>
-        <v>21369.077270377664</v>
+        <v>104.95152010116047</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>10495.152010116048</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>19</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" ref="E39:E102" si="2">C39^$D$21</f>
-        <v>236.24720729558456</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="1"/>
-        <v>23624.720729558456</v>
+        <v>114.49678642668793</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>11449.678642668794</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>20</v>
       </c>
-      <c r="E40" s="7">
-        <f t="shared" si="2"/>
-        <v>259.84338904841491</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="1"/>
-        <v>25984.33890484149</v>
+      <c r="E40" s="6">
+        <f t="shared" si="2"/>
+        <v>124.35358010948759</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="1"/>
+        <v>12435.358010948759</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>21</v>
       </c>
-      <c r="E41" s="7">
-        <f t="shared" si="2"/>
-        <v>284.47166260769319</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="1"/>
-        <v>28447.166260769318</v>
+      <c r="E41" s="6">
+        <f t="shared" si="2"/>
+        <v>134.51572742513608</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="1"/>
+        <v>13451.572742513608</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>22</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" si="2"/>
-        <v>310.1247988595245</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" si="1"/>
-        <v>31012.479885952449</v>
+      <c r="E42" s="6">
+        <f t="shared" si="2"/>
+        <v>144.97746983607038</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="1"/>
+        <v>14497.746983607038</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>23</v>
       </c>
-      <c r="E43" s="7">
-        <f t="shared" si="2"/>
-        <v>336.79595249540472</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="1"/>
-        <v>33679.595249540471</v>
+      <c r="E43" s="6">
+        <f t="shared" si="2"/>
+        <v>155.73341817688012</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="1"/>
+        <v>15573.341817688011</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>24</v>
       </c>
-      <c r="E44" s="7">
-        <f t="shared" si="2"/>
-        <v>364.47862550002492</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="1"/>
-        <v>36447.862550002494</v>
+      <c r="E44" s="6">
+        <f t="shared" si="2"/>
+        <v>166.77851369684464</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="1"/>
+        <v>16677.851369684464</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>25</v>
       </c>
-      <c r="E45" s="7">
-        <f t="shared" si="2"/>
-        <v>393.1666355183379</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="1"/>
-        <v>39316.663551833786</v>
+      <c r="E45" s="6">
+        <f t="shared" si="2"/>
+        <v>178.10799468631399</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="1"/>
+        <v>17810.799468631398</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>26</v>
       </c>
-      <c r="E46" s="7">
-        <f t="shared" si="2"/>
-        <v>422.85408827718015</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="1"/>
-        <v>42285.408827718013</v>
+      <c r="E46" s="6">
+        <f t="shared" si="2"/>
+        <v>189.71736769219302</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="1"/>
+        <v>18971.736769219304</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>27</v>
       </c>
-      <c r="E47" s="7">
-        <f t="shared" si="2"/>
-        <v>453.53535340304796</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="1"/>
-        <v>45353.535340304799</v>
+      <c r="E47" s="6">
+        <f t="shared" si="2"/>
+        <v>201.60238253694141</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="1"/>
+        <v>20160.23825369414</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>28</v>
       </c>
-      <c r="E48" s="7">
-        <f t="shared" si="2"/>
-        <v>485.20504310538394</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="1"/>
-        <v>48520.504310538396</v>
+      <c r="E48" s="6">
+        <f t="shared" si="2"/>
+        <v>213.75901051447465</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="1"/>
+        <v>21375.901051447465</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>29</v>
       </c>
-      <c r="E49" s="7">
-        <f t="shared" si="2"/>
-        <v>517.85799329394104</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="1"/>
-        <v>51785.799329394104</v>
+      <c r="E49" s="6">
+        <f t="shared" si="2"/>
+        <v>226.18342525854575</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="1"/>
+        <v>22618.342525854576</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>30</v>
       </c>
-      <c r="E50" s="7">
-        <f t="shared" si="2"/>
-        <v>551.48924677661466</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="1"/>
-        <v>55148.924677661467</v>
+      <c r="E50" s="6">
+        <f t="shared" si="2"/>
+        <v>238.87198587411316</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="1"/>
+        <v>23887.198587411316</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>31</v>
       </c>
-      <c r="E51" s="7">
-        <f t="shared" si="2"/>
-        <v>586.09403824576611</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="1"/>
-        <v>58609.403824576613</v>
+      <c r="E51" s="6">
+        <f t="shared" si="2"/>
+        <v>251.82122199666637</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="1"/>
+        <v>25182.122199666635</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>32</v>
       </c>
-      <c r="E52" s="7">
-        <f t="shared" si="2"/>
-        <v>621.66778081026416</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="1"/>
-        <v>62166.778081026416</v>
+      <c r="E52" s="6">
+        <f t="shared" si="2"/>
+        <v>265.02782050339272</v>
+      </c>
+      <c r="F52" s="6">
+        <f t="shared" si="1"/>
+        <v>26502.782050339272</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>33</v>
       </c>
-      <c r="E53" s="7">
-        <f t="shared" si="2"/>
-        <v>658.20605387009152</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="1"/>
-        <v>65820.605387009156</v>
+      <c r="E53" s="6">
+        <f t="shared" si="2"/>
+        <v>278.48861364711354</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="1"/>
+        <v>27848.861364711353</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54">
         <v>34</v>
       </c>
-      <c r="E54" s="7">
-        <f t="shared" si="2"/>
-        <v>695.70459216249685</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="1"/>
-        <v>69570.459216249685</v>
+      <c r="E54" s="6">
+        <f t="shared" si="2"/>
+        <v>292.20056842171908</v>
+      </c>
+      <c r="F54" s="6">
+        <f t="shared" si="1"/>
+        <v>29220.056842171907</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>35</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="2"/>
-        <v>734.15927583491316</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" si="1"/>
-        <v>73415.927583491313</v>
+      <c r="E55" s="6">
+        <f t="shared" si="2"/>
+        <v>306.16077699848273</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" si="1"/>
+        <v>30616.077699848272</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>36</v>
       </c>
-      <c r="E56" s="7">
-        <f t="shared" si="2"/>
-        <v>773.56612142143979</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" si="1"/>
-        <v>77356.612142143975</v>
+      <c r="E56" s="6">
+        <f t="shared" si="2"/>
+        <v>320.36644809761066</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="1"/>
+        <v>32036.644809761066</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>37</v>
       </c>
-      <c r="E57" s="7">
-        <f t="shared" si="2"/>
-        <v>813.92127361749874</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="1"/>
-        <v>81392.127361749881</v>
+      <c r="E57" s="6">
+        <f t="shared" si="2"/>
+        <v>334.81489917989182</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="1"/>
+        <v>33481.48991798918</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>38</v>
       </c>
-      <c r="E58" s="7">
-        <f t="shared" si="2"/>
-        <v>855.22099776216658</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="1"/>
-        <v>85522.099776216652</v>
+      <c r="E58" s="6">
+        <f t="shared" si="2"/>
+        <v>349.50354936024576</v>
+      </c>
+      <c r="F58" s="6">
+        <f t="shared" si="1"/>
+        <v>34950.354936024574</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>39</v>
       </c>
-      <c r="E59" s="7">
-        <f t="shared" si="2"/>
-        <v>897.46167295002238</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="1"/>
-        <v>89746.167295002233</v>
+      <c r="E59" s="6">
+        <f t="shared" si="2"/>
+        <v>364.42991295902306</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="1"/>
+        <v>36442.991295902306</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>40</v>
       </c>
-      <c r="E60" s="7">
-        <f t="shared" si="2"/>
-        <v>940.6397857048504</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" si="1"/>
-        <v>94063.978570485036</v>
+      <c r="E60" s="6">
+        <f t="shared" si="2"/>
+        <v>379.59159361864027</v>
+      </c>
+      <c r="F60" s="6">
+        <f t="shared" si="1"/>
+        <v>37959.159361864025</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>41</v>
       </c>
-      <c r="E61" s="7">
-        <f t="shared" si="2"/>
-        <v>984.75192415628953</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" si="1"/>
-        <v>98475.192415628961</v>
+      <c r="E61" s="6">
+        <f t="shared" si="2"/>
+        <v>394.98627892298123</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="1"/>
+        <v>39498.627892298122</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>42</v>
       </c>
-      <c r="E62" s="7">
-        <f t="shared" si="2"/>
-        <v>1029.7947726680304</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" si="1"/>
-        <v>102979.47726680303</v>
+      <c r="E62" s="6">
+        <f t="shared" si="2"/>
+        <v>410.61173546528494</v>
+      </c>
+      <c r="F62" s="6">
+        <f t="shared" si="1"/>
+        <v>41061.173546528495</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>43</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" si="2"/>
-        <v>1075.7651068725129</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" si="1"/>
-        <v>107576.51068725128</v>
+      <c r="E63" s="6">
+        <f t="shared" si="2"/>
+        <v>426.46580431727011</v>
+      </c>
+      <c r="F63" s="6">
+        <f t="shared" si="1"/>
+        <v>42646.580431727009</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>44</v>
       </c>
-      <c r="E64" s="7">
-        <f t="shared" si="2"/>
-        <v>1122.6597890725227</v>
-      </c>
-      <c r="F64" s="7">
-        <f t="shared" si="1"/>
-        <v>112265.97890725227</v>
+      <c r="E64" s="6">
+        <f t="shared" si="2"/>
+        <v>442.54639685820797</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" si="1"/>
+        <v>44254.639685820795</v>
       </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>45</v>
       </c>
-      <c r="E65" s="7">
-        <f t="shared" si="2"/>
-        <v>1170.4757639747725</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" si="1"/>
-        <v>117047.57639747724</v>
+      <c r="E65" s="6">
+        <f t="shared" si="2"/>
+        <v>458.85149092775595</v>
+      </c>
+      <c r="F65" s="6">
+        <f t="shared" si="1"/>
+        <v>45885.149092775595</v>
       </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>46</v>
       </c>
-      <c r="E66" s="7">
-        <f t="shared" si="2"/>
-        <v>1219.2100547245818</v>
-      </c>
-      <c r="F66" s="7">
-        <f t="shared" si="1"/>
-        <v>121921.00547245819</v>
+      <c r="E66" s="6">
+        <f t="shared" si="2"/>
+        <v>475.37912727073819</v>
+      </c>
+      <c r="F66" s="6">
+        <f t="shared" si="1"/>
+        <v>47537.912727073817</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>47</v>
       </c>
-      <c r="E67" s="7">
-        <f t="shared" si="2"/>
-        <v>1268.8597592142562</v>
-      </c>
-      <c r="F67" s="7">
-        <f t="shared" si="1"/>
-        <v>126885.97592142562</v>
+      <c r="E67" s="6">
+        <f t="shared" si="2"/>
+        <v>492.12740624580101</v>
+      </c>
+      <c r="F67" s="6">
+        <f t="shared" si="1"/>
+        <v>49212.740624580103</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>48</v>
       </c>
-      <c r="E68" s="7">
-        <f t="shared" si="2"/>
-        <v>1319.4220466408035</v>
-      </c>
-      <c r="F68" s="7">
-        <f t="shared" si="1"/>
-        <v>131942.20466408035</v>
+      <c r="E68" s="6">
+        <f t="shared" si="2"/>
+        <v>509.09448477312748</v>
+      </c>
+      <c r="F68" s="6">
+        <f t="shared" si="1"/>
+        <v>50909.448477312748</v>
       </c>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>49</v>
       </c>
-      <c r="E69" s="7">
-        <f t="shared" si="2"/>
-        <v>1370.8941542912414</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" si="1"/>
-        <v>137089.41542912414</v>
+      <c r="E69" s="6">
+        <f t="shared" si="2"/>
+        <v>526.27857349919009</v>
+      </c>
+      <c r="F69" s="6">
+        <f t="shared" si="1"/>
+        <v>52627.85734991901</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>50</v>
       </c>
-      <c r="E70" s="7">
-        <f t="shared" si="2"/>
-        <v>1423.2733845360933</v>
-      </c>
-      <c r="F70" s="7">
-        <f t="shared" si="1"/>
-        <v>142327.33845360932</v>
+      <c r="E70" s="6">
+        <f t="shared" si="2"/>
+        <v>543.67793415896983</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="1"/>
+        <v>54367.79341589698</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>51</v>
       </c>
-      <c r="E71" s="7">
-        <f t="shared" si="2"/>
-        <v>1476.5571020136269</v>
-      </c>
-      <c r="F71" s="7">
-        <f t="shared" si="1"/>
-        <v>147655.7102013627</v>
+      <c r="E71" s="6">
+        <f t="shared" si="2"/>
+        <v>561.29087711818408</v>
+      </c>
+      <c r="F71" s="6">
+        <f t="shared" si="1"/>
+        <v>56129.087711818407</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72">
         <v>52</v>
       </c>
-      <c r="E72" s="7">
-        <f t="shared" si="2"/>
-        <v>1530.7427309892275</v>
-      </c>
-      <c r="F72" s="7">
-        <f t="shared" si="1"/>
-        <v>153074.27309892274</v>
+      <c r="E72" s="6">
+        <f t="shared" si="2"/>
+        <v>579.11575907993233</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="1"/>
+        <v>57911.575907993232</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73">
         <v>53</v>
       </c>
-      <c r="E73" s="7">
-        <f t="shared" si="2"/>
-        <v>1585.8277528758063</v>
-      </c>
-      <c r="F73" s="7">
-        <f t="shared" si="1"/>
-        <v>158582.77528758062</v>
+      <c r="E73" s="6">
+        <f t="shared" si="2"/>
+        <v>597.15098094178643</v>
+      </c>
+      <c r="F73" s="6">
+        <f t="shared" si="1"/>
+        <v>59715.09809417864</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>54</v>
       </c>
-      <c r="E74" s="7">
-        <f t="shared" si="2"/>
-        <v>1641.8097039025647</v>
-      </c>
-      <c r="F74" s="7">
-        <f t="shared" si="1"/>
-        <v>164180.97039025647</v>
+      <c r="E74" s="6">
+        <f t="shared" si="2"/>
+        <v>615.3949857907927</v>
+      </c>
+      <c r="F74" s="6">
+        <f t="shared" si="1"/>
+        <v>61539.498579079271</v>
       </c>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>55</v>
       </c>
-      <c r="E75" s="7">
-        <f t="shared" si="2"/>
-        <v>1698.6861729206021</v>
-      </c>
-      <c r="F75" s="7">
-        <f t="shared" si="1"/>
-        <v>169868.6172920602</v>
+      <c r="E75" s="6">
+        <f t="shared" si="2"/>
+        <v>633.84625702509572</v>
+      </c>
+      <c r="F75" s="6">
+        <f t="shared" si="1"/>
+        <v>63384.625702509569</v>
       </c>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>56</v>
       </c>
-      <c r="E76" s="7">
-        <f t="shared" si="2"/>
-        <v>1756.4547993350072</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="1"/>
-        <v>175645.47993350073</v>
+      <c r="E76" s="6">
+        <f t="shared" si="2"/>
+        <v>652.50331659202868</v>
+      </c>
+      <c r="F76" s="6">
+        <f t="shared" si="1"/>
+        <v>65250.331659202871</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>57</v>
       </c>
-      <c r="E77" s="7">
-        <f t="shared" si="2"/>
-        <v>1815.1132711539701</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="1"/>
-        <v>181511.327115397</v>
+      <c r="E77" s="6">
+        <f t="shared" si="2"/>
+        <v>671.36472333347319</v>
+      </c>
+      <c r="F77" s="6">
+        <f t="shared" si="1"/>
+        <v>67136.472333347323</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>58</v>
       </c>
-      <c r="E78" s="7">
-        <f t="shared" si="2"/>
-        <v>1874.6593231463553</v>
-      </c>
-      <c r="F78" s="7">
-        <f t="shared" si="1"/>
-        <v>187465.93231463552</v>
+      <c r="E78" s="6">
+        <f t="shared" si="2"/>
+        <v>690.42907143019522</v>
+      </c>
+      <c r="F78" s="6">
+        <f t="shared" si="1"/>
+        <v>69042.907143019518</v>
       </c>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>59</v>
       </c>
-      <c r="E79" s="7">
-        <f t="shared" si="2"/>
-        <v>1935.0907350999216</v>
-      </c>
-      <c r="F79" s="7">
-        <f t="shared" si="1"/>
-        <v>193509.07350999216</v>
+      <c r="E79" s="6">
+        <f t="shared" si="2"/>
+        <v>709.69498893760726</v>
+      </c>
+      <c r="F79" s="6">
+        <f t="shared" si="1"/>
+        <v>70969.498893760727</v>
       </c>
     </row>
     <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>60</v>
       </c>
-      <c r="E80" s="7">
-        <f t="shared" si="2"/>
-        <v>1996.4053301730448</v>
-      </c>
-      <c r="F80" s="7">
-        <f t="shared" si="1"/>
-        <v>199640.53301730449</v>
+      <c r="E80" s="6">
+        <f t="shared" si="2"/>
+        <v>729.16113640612332</v>
+      </c>
+      <c r="F80" s="6">
+        <f t="shared" si="1"/>
+        <v>72916.113640612326</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>61</v>
       </c>
-      <c r="E81" s="7">
-        <f t="shared" si="2"/>
-        <v>2058.6009733334981</v>
-      </c>
-      <c r="F81" s="7">
-        <f t="shared" si="1"/>
-        <v>205860.09733334981</v>
+      <c r="E81" s="6">
+        <f t="shared" si="2"/>
+        <v>748.82620557989492</v>
+      </c>
+      <c r="F81" s="6">
+        <f t="shared" si="1"/>
+        <v>74882.620557989489</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>62</v>
       </c>
-      <c r="E82" s="7">
-        <f t="shared" si="2"/>
-        <v>2121.6755698782358</v>
-      </c>
-      <c r="F82" s="7">
-        <f t="shared" si="1"/>
-        <v>212167.55698782357</v>
+      <c r="E82" s="6">
+        <f t="shared" si="2"/>
+        <v>768.68891816822634</v>
+      </c>
+      <c r="F82" s="6">
+        <f t="shared" si="1"/>
+        <v>76868.891816822637</v>
       </c>
     </row>
     <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>63</v>
       </c>
-      <c r="E83" s="7">
-        <f t="shared" si="2"/>
-        <v>2185.6270640288244</v>
-      </c>
-      <c r="F83" s="7">
-        <f t="shared" si="1"/>
-        <v>218562.70640288244</v>
+      <c r="E83" s="6">
+        <f t="shared" si="2"/>
+        <v>788.74802468453606</v>
+      </c>
+      <c r="F83" s="6">
+        <f t="shared" si="1"/>
+        <v>78874.802468453607</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84">
         <v>64</v>
       </c>
-      <c r="E84" s="7">
-        <f t="shared" si="2"/>
-        <v>2250.4534375974495</v>
-      </c>
-      <c r="F84" s="7">
-        <f t="shared" si="1"/>
-        <v>225045.34375974495</v>
+      <c r="E84" s="6">
+        <f t="shared" si="2"/>
+        <v>809.00230334809805</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="1"/>
+        <v>80900.230334809807</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85">
         <v>65</v>
       </c>
-      <c r="E85" s="7">
-        <f t="shared" si="2"/>
-        <v>2316.1527087189038</v>
-      </c>
-      <c r="F85" s="7">
-        <f t="shared" si="1"/>
-        <v>231615.27087189039</v>
+      <c r="E85" s="6">
+        <f t="shared" si="2"/>
+        <v>829.45055904425624</v>
+      </c>
+      <c r="F85" s="6">
+        <f t="shared" si="1"/>
+        <v>82945.055904425622</v>
       </c>
     </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86">
         <v>66</v>
       </c>
-      <c r="E86" s="7">
-        <f t="shared" si="2"/>
-        <v>2382.7229306443455</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="E86" s="6">
+        <f t="shared" si="2"/>
+        <v>850.09162233913207</v>
+      </c>
+      <c r="F86" s="6">
         <f t="shared" ref="F86:F149" si="3">E86*100</f>
-        <v>238272.29306443455</v>
+        <v>85009.162233913201</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87">
         <v>67</v>
       </c>
-      <c r="E87" s="7">
-        <f t="shared" si="2"/>
-        <v>2450.1621905928992</v>
-      </c>
-      <c r="F87" s="7">
-        <f t="shared" si="3"/>
-        <v>245016.21905928993</v>
+      <c r="E87" s="6">
+        <f t="shared" si="2"/>
+        <v>870.92434854519172</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="3"/>
+        <v>87092.434854519175</v>
       </c>
     </row>
     <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88">
         <v>68</v>
       </c>
-      <c r="E88" s="7">
-        <f t="shared" si="2"/>
-        <v>2518.4686086575039</v>
-      </c>
-      <c r="F88" s="7">
-        <f t="shared" si="3"/>
-        <v>251846.86086575038</v>
+      <c r="E88" s="6">
+        <f t="shared" si="2"/>
+        <v>891.94761683431705</v>
+      </c>
+      <c r="F88" s="6">
+        <f t="shared" si="3"/>
+        <v>89194.761683431701</v>
       </c>
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89">
         <v>69</v>
       </c>
-      <c r="E89" s="7">
-        <f t="shared" si="2"/>
-        <v>2587.6403367616726</v>
-      </c>
-      <c r="F89" s="7">
-        <f t="shared" si="3"/>
-        <v>258764.03367616725</v>
+      <c r="E89" s="6">
+        <f t="shared" si="2"/>
+        <v>913.160329395296</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="3"/>
+        <v>91316.032939529599</v>
       </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90">
         <v>70</v>
       </c>
-      <c r="E90" s="7">
-        <f t="shared" si="2"/>
-        <v>2657.675557664124</v>
-      </c>
-      <c r="F90" s="7">
-        <f t="shared" si="3"/>
-        <v>265767.55576641241</v>
+      <c r="E90" s="6">
+        <f t="shared" si="2"/>
+        <v>934.56141063290988</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="3"/>
+        <v>93456.141063290983</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>71</v>
       </c>
-      <c r="E91" s="7">
-        <f t="shared" si="2"/>
-        <v>2728.5724840083653</v>
-      </c>
-      <c r="F91" s="7">
-        <f t="shared" si="3"/>
-        <v>272857.24840083654</v>
+      <c r="E91" s="6">
+        <f t="shared" si="2"/>
+        <v>956.1498064059723</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="3"/>
+        <v>95614.980640597234</v>
       </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92">
         <v>72</v>
       </c>
-      <c r="E92" s="7">
-        <f t="shared" si="2"/>
-        <v>2800.3293574146605</v>
-      </c>
-      <c r="F92" s="7">
-        <f t="shared" si="3"/>
-        <v>280032.93574146606</v>
+      <c r="E92" s="6">
+        <f t="shared" si="2"/>
+        <v>977.9244833019269</v>
+      </c>
+      <c r="F92" s="6">
+        <f t="shared" si="3"/>
+        <v>97792.448330192696</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93">
         <v>73</v>
       </c>
-      <c r="E93" s="7">
-        <f t="shared" si="2"/>
-        <v>2872.9444476118611</v>
-      </c>
-      <c r="F93" s="7">
-        <f t="shared" si="3"/>
-        <v>287294.44476118608</v>
+      <c r="E93" s="6">
+        <f t="shared" si="2"/>
+        <v>999.88442794573746</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="3"/>
+        <v>99988.442794573741</v>
       </c>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C94">
         <v>74</v>
       </c>
-      <c r="E94" s="7">
-        <f t="shared" si="2"/>
-        <v>2946.4160516068923</v>
-      </c>
-      <c r="F94" s="7">
-        <f t="shared" si="3"/>
-        <v>294641.60516068921</v>
+      <c r="E94" s="6">
+        <f t="shared" si="2"/>
+        <v>1022.0286463410225</v>
+      </c>
+      <c r="F94" s="6">
+        <f t="shared" si="3"/>
+        <v>102202.86463410225</v>
       </c>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C95">
         <v>75</v>
       </c>
-      <c r="E95" s="7">
-        <f t="shared" si="2"/>
-        <v>3020.7424928896821</v>
-      </c>
-      <c r="F95" s="7">
-        <f t="shared" si="3"/>
-        <v>302074.24928896822</v>
+      <c r="E95" s="6">
+        <f t="shared" si="2"/>
+        <v>1044.356163241496</v>
+      </c>
+      <c r="F95" s="6">
+        <f t="shared" si="3"/>
+        <v>104435.6163241496</v>
       </c>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C96">
         <v>76</v>
       </c>
-      <c r="E96" s="7">
-        <f t="shared" si="2"/>
-        <v>3095.9221206717093</v>
-      </c>
-      <c r="F96" s="7">
-        <f t="shared" si="3"/>
-        <v>309592.21206717094</v>
+      <c r="E96" s="6">
+        <f t="shared" si="2"/>
+        <v>1066.8660215509524</v>
+      </c>
+      <c r="F96" s="6">
+        <f t="shared" si="3"/>
+        <v>106686.60215509524</v>
       </c>
     </row>
     <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C97">
         <v>77</v>
       </c>
-      <c r="E97" s="7">
-        <f t="shared" si="2"/>
-        <v>3171.9533091561207</v>
-      </c>
-      <c r="F97" s="7">
-        <f t="shared" si="3"/>
-        <v>317195.33091561205</v>
+      <c r="E97" s="6">
+        <f t="shared" si="2"/>
+        <v>1089.5572817501109</v>
+      </c>
+      <c r="F97" s="6">
+        <f t="shared" si="3"/>
+        <v>108955.72817501109</v>
       </c>
     </row>
     <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C98">
         <v>78</v>
       </c>
-      <c r="E98" s="7">
-        <f t="shared" si="2"/>
-        <v>3248.8344568378975</v>
-      </c>
-      <c r="F98" s="7">
-        <f t="shared" si="3"/>
-        <v>324883.44568378973</v>
+      <c r="E98" s="6">
+        <f t="shared" si="2"/>
+        <v>1112.4290213488073</v>
+      </c>
+      <c r="F98" s="6">
+        <f t="shared" si="3"/>
+        <v>111242.90213488073</v>
       </c>
     </row>
     <row r="99" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C99">
         <v>79</v>
       </c>
-      <c r="E99" s="7">
-        <f t="shared" si="2"/>
-        <v>3326.5639858324039</v>
-      </c>
-      <c r="F99" s="7">
-        <f t="shared" si="3"/>
-        <v>332656.3985832404</v>
+      <c r="E99" s="6">
+        <f t="shared" si="2"/>
+        <v>1135.4803343621006</v>
+      </c>
+      <c r="F99" s="6">
+        <f t="shared" si="3"/>
+        <v>113548.03343621007</v>
       </c>
     </row>
     <row r="100" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C100">
         <v>80</v>
       </c>
-      <c r="E100" s="7">
-        <f t="shared" si="2"/>
-        <v>3405.1403412307195</v>
-      </c>
-      <c r="F100" s="7">
-        <f t="shared" si="3"/>
-        <v>340514.03412307194</v>
+      <c r="E100" s="6">
+        <f t="shared" si="2"/>
+        <v>1158.7103308089272</v>
+      </c>
+      <c r="F100" s="6">
+        <f t="shared" si="3"/>
+        <v>115871.03308089272</v>
       </c>
     </row>
     <row r="101" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C101">
         <v>81</v>
       </c>
-      <c r="E101" s="7">
-        <f t="shared" si="2"/>
-        <v>3484.5619904805681</v>
-      </c>
-      <c r="F101" s="7">
-        <f t="shared" si="3"/>
-        <v>348456.19904805679</v>
+      <c r="E101" s="6">
+        <f t="shared" si="2"/>
+        <v>1182.1181362321136</v>
+      </c>
+      <c r="F101" s="6">
+        <f t="shared" si="3"/>
+        <v>118211.81362321136</v>
       </c>
     </row>
     <row r="102" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C102">
         <v>82</v>
       </c>
-      <c r="E102" s="7">
-        <f t="shared" si="2"/>
-        <v>3564.8274227912771</v>
-      </c>
-      <c r="F102" s="7">
-        <f t="shared" si="3"/>
-        <v>356482.74227912771</v>
+      <c r="E102" s="6">
+        <f t="shared" si="2"/>
+        <v>1205.7028912385276</v>
+      </c>
+      <c r="F102" s="6">
+        <f t="shared" si="3"/>
+        <v>120570.28912385277</v>
       </c>
     </row>
     <row r="103" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C103">
         <v>83</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <f t="shared" ref="E103:E166" si="4">C103^$D$21</f>
-        <v>3645.935148561789</v>
-      </c>
-      <c r="F103" s="7">
-        <f t="shared" si="3"/>
-        <v>364593.5148561789</v>
+        <v>1229.4637510583402</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="3"/>
+        <v>122946.37510583403</v>
       </c>
     </row>
     <row r="104" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C104">
         <v>84</v>
       </c>
-      <c r="E104" s="7">
-        <f t="shared" si="4"/>
-        <v>3727.8836988303983</v>
-      </c>
-      <c r="F104" s="7">
-        <f t="shared" si="3"/>
-        <v>372788.36988303985</v>
+      <c r="E104" s="6">
+        <f t="shared" si="4"/>
+        <v>1253.3998851223357</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="3"/>
+        <v>125339.98851223357</v>
       </c>
     </row>
     <row r="105" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C105">
         <v>85</v>
       </c>
-      <c r="E105" s="7">
-        <f t="shared" si="4"/>
-        <v>3810.6716247451918</v>
-      </c>
-      <c r="F105" s="7">
-        <f t="shared" si="3"/>
-        <v>381067.16247451917</v>
+      <c r="E105" s="6">
+        <f t="shared" si="4"/>
+        <v>1277.510476656365</v>
+      </c>
+      <c r="F105" s="6">
+        <f t="shared" si="3"/>
+        <v>127751.04766563649</v>
       </c>
     </row>
     <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C106">
         <v>86</v>
       </c>
-      <c r="E106" s="7">
-        <f t="shared" si="4"/>
-        <v>3894.2974970541732</v>
-      </c>
-      <c r="F106" s="7">
-        <f t="shared" si="3"/>
-        <v>389429.74970541731</v>
+      <c r="E106" s="6">
+        <f t="shared" si="4"/>
+        <v>1301.79472229201</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="3"/>
+        <v>130179.472229201</v>
       </c>
     </row>
     <row r="107" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C107">
         <v>87</v>
       </c>
-      <c r="E107" s="7">
-        <f t="shared" si="4"/>
-        <v>3978.759905614183</v>
-      </c>
-      <c r="F107" s="7">
-        <f t="shared" si="3"/>
-        <v>397875.99056141829</v>
+      <c r="E107" s="6">
+        <f t="shared" si="4"/>
+        <v>1326.2518316926826</v>
+      </c>
+      <c r="F107" s="6">
+        <f t="shared" si="3"/>
+        <v>132625.18316926825</v>
       </c>
     </row>
     <row r="108" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C108">
         <v>88</v>
       </c>
-      <c r="E108" s="7">
-        <f t="shared" si="4"/>
-        <v>4064.0574589175758</v>
-      </c>
-      <c r="F108" s="7">
-        <f t="shared" si="3"/>
-        <v>406405.7458917576</v>
+      <c r="E108" s="6">
+        <f t="shared" si="4"/>
+        <v>1350.8810271943103</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="3"/>
+        <v>135088.10271943102</v>
       </c>
     </row>
     <row r="109" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C109">
         <v>89</v>
       </c>
-      <c r="E109" s="7">
-        <f t="shared" si="4"/>
-        <v>4150.1887836359001</v>
-      </c>
-      <c r="F109" s="7">
-        <f t="shared" si="3"/>
-        <v>415018.87836358999</v>
+      <c r="E109" s="6">
+        <f t="shared" si="4"/>
+        <v>1375.6815434599387</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="3"/>
+        <v>137568.15434599385</v>
       </c>
     </row>
     <row r="110" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C110">
         <v>90</v>
       </c>
-      <c r="E110" s="7">
-        <f t="shared" si="4"/>
-        <v>4237.1525241799036</v>
-      </c>
-      <c r="F110" s="7">
-        <f t="shared" si="3"/>
-        <v>423715.25241799036</v>
+      <c r="E110" s="6">
+        <f t="shared" si="4"/>
+        <v>1400.6526271475404</v>
+      </c>
+      <c r="F110" s="6">
+        <f t="shared" si="3"/>
+        <v>140065.26271475403</v>
       </c>
     </row>
     <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>91</v>
       </c>
-      <c r="E111" s="7">
-        <f t="shared" si="4"/>
-        <v>4324.947342274756</v>
-      </c>
-      <c r="F111" s="7">
-        <f t="shared" si="3"/>
-        <v>432494.73422747559</v>
+      <c r="E111" s="6">
+        <f t="shared" si="4"/>
+        <v>1425.7935365903525</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="3"/>
+        <v>142579.35365903526</v>
       </c>
     </row>
     <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C112">
         <v>92</v>
       </c>
-      <c r="E112" s="7">
-        <f t="shared" si="4"/>
-        <v>4413.5719165502678</v>
-      </c>
-      <c r="F112" s="7">
-        <f t="shared" si="3"/>
-        <v>441357.19165502681</v>
+      <c r="E112" s="6">
+        <f t="shared" si="4"/>
+        <v>1451.1035414891962</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="3"/>
+        <v>145110.35414891964</v>
       </c>
     </row>
     <row r="113" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C113">
         <v>93</v>
       </c>
-      <c r="E113" s="7">
-        <f t="shared" si="4"/>
-        <v>4503.0249421449789</v>
-      </c>
-      <c r="F113" s="7">
-        <f t="shared" si="3"/>
-        <v>450302.49421449791</v>
+      <c r="E113" s="6">
+        <f t="shared" si="4"/>
+        <v>1476.5819226161454</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="3"/>
+        <v>147658.19226161455</v>
       </c>
     </row>
     <row r="114" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C114">
         <v>94</v>
       </c>
-      <c r="E114" s="7">
-        <f t="shared" si="4"/>
-        <v>4593.3051303237953</v>
-      </c>
-      <c r="F114" s="7">
-        <f t="shared" si="3"/>
-        <v>459330.51303237956</v>
+      <c r="E114" s="6">
+        <f t="shared" si="4"/>
+        <v>1502.2279715290554</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="3"/>
+        <v>150222.79715290555</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C115">
         <v>95</v>
       </c>
-      <c r="E115" s="7">
-        <f t="shared" si="4"/>
-        <v>4684.4112081085086</v>
-      </c>
-      <c r="F115" s="7">
-        <f t="shared" si="3"/>
-        <v>468441.12081085087</v>
+      <c r="E115" s="6">
+        <f t="shared" si="4"/>
+        <v>1528.0409902964145</v>
+      </c>
+      <c r="F115" s="6">
+        <f t="shared" si="3"/>
+        <v>152804.09902964145</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C116">
         <v>96</v>
       </c>
-      <c r="E116" s="7">
-        <f t="shared" si="4"/>
-        <v>4776.3419179204684</v>
-      </c>
-      <c r="F116" s="7">
-        <f t="shared" si="3"/>
-        <v>477634.19179204683</v>
+      <c r="E116" s="6">
+        <f t="shared" si="4"/>
+        <v>1554.0202912320333</v>
+      </c>
+      <c r="F116" s="6">
+        <f t="shared" si="3"/>
+        <v>155402.02912320333</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>97</v>
       </c>
-      <c r="E117" s="7">
-        <f t="shared" si="4"/>
-        <v>4869.0960172351461</v>
-      </c>
-      <c r="F117" s="7">
-        <f t="shared" si="3"/>
-        <v>486909.60172351461</v>
+      <c r="E117" s="6">
+        <f t="shared" si="4"/>
+        <v>1580.1651966391578</v>
+      </c>
+      <c r="F117" s="6">
+        <f t="shared" si="3"/>
+        <v>158016.51966391577</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>98</v>
       </c>
-      <c r="E118" s="7">
-        <f t="shared" si="4"/>
-        <v>4962.672278247881</v>
-      </c>
-      <c r="F118" s="7">
-        <f t="shared" si="3"/>
-        <v>496267.22782478807</v>
+      <c r="E118" s="6">
+        <f t="shared" si="4"/>
+        <v>1606.4750385635327</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="3"/>
+        <v>160647.50385635329</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>99</v>
       </c>
-      <c r="E119" s="7">
-        <f t="shared" si="4"/>
-        <v>5057.0694875503659</v>
-      </c>
-      <c r="F119" s="7">
-        <f t="shared" si="3"/>
-        <v>505706.94875503657</v>
+      <c r="E119" s="6">
+        <f t="shared" si="4"/>
+        <v>1632.9491585550447</v>
+      </c>
+      <c r="F119" s="6">
+        <f t="shared" si="3"/>
+        <v>163294.91585550449</v>
       </c>
     </row>
     <row r="120" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>100</v>
       </c>
-      <c r="E120" s="7">
-        <f t="shared" si="4"/>
-        <v>5152.2864458175727</v>
-      </c>
-      <c r="F120" s="7">
-        <f t="shared" si="3"/>
-        <v>515228.64458175725</v>
+      <c r="E120" s="6">
+        <f t="shared" si="4"/>
+        <v>1659.5869074375626</v>
+      </c>
+      <c r="F120" s="6">
+        <f t="shared" si="3"/>
+        <v>165958.69074375625</v>
       </c>
     </row>
     <row r="121" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>101</v>
       </c>
-      <c r="E121" s="7">
-        <f t="shared" si="4"/>
-        <v>5248.3219675043947</v>
-      </c>
-      <c r="F121" s="7">
-        <f t="shared" si="3"/>
-        <v>524832.19675043947</v>
+      <c r="E121" s="6">
+        <f t="shared" si="4"/>
+        <v>1686.3876450865757</v>
+      </c>
+      <c r="F121" s="6">
+        <f t="shared" si="3"/>
+        <v>168638.76450865756</v>
       </c>
     </row>
     <row r="122" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>102</v>
       </c>
-      <c r="E122" s="7">
-        <f t="shared" si="4"/>
-        <v>5345.1748805519364</v>
-      </c>
-      <c r="F122" s="7">
-        <f t="shared" si="3"/>
-        <v>534517.48805519368</v>
+      <c r="E122" s="6">
+        <f t="shared" si="4"/>
+        <v>1713.3507402143553</v>
+      </c>
+      <c r="F122" s="6">
+        <f t="shared" si="3"/>
+        <v>171335.07402143552</v>
       </c>
     </row>
     <row r="123" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>103</v>
       </c>
-      <c r="E123" s="7">
-        <f t="shared" si="4"/>
-        <v>5442.844026102809</v>
-      </c>
-      <c r="F123" s="7">
-        <f t="shared" si="3"/>
-        <v>544284.4026102809</v>
+      <c r="E123" s="6">
+        <f t="shared" si="4"/>
+        <v>1740.4755701622548</v>
+      </c>
+      <c r="F123" s="6">
+        <f t="shared" si="3"/>
+        <v>174047.55701622547</v>
       </c>
     </row>
     <row r="124" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>104</v>
       </c>
-      <c r="E124" s="7">
-        <f t="shared" si="4"/>
-        <v>5541.3282582251122</v>
-      </c>
-      <c r="F124" s="7">
-        <f t="shared" si="3"/>
-        <v>554132.82582251122</v>
+      <c r="E124" s="6">
+        <f t="shared" si="4"/>
+        <v>1767.7615206998616</v>
+      </c>
+      <c r="F124" s="6">
+        <f t="shared" si="3"/>
+        <v>176776.15206998616</v>
       </c>
     </row>
     <row r="125" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>105</v>
       </c>
-      <c r="E125" s="7">
-        <f t="shared" si="4"/>
-        <v>5640.6264436449264</v>
-      </c>
-      <c r="F125" s="7">
-        <f t="shared" si="3"/>
-        <v>564062.64436449262</v>
+      <c r="E125" s="6">
+        <f t="shared" si="4"/>
+        <v>1795.2079858307443</v>
+      </c>
+      <c r="F125" s="6">
+        <f t="shared" si="3"/>
+        <v>179520.79858307441</v>
       </c>
     </row>
     <row r="126" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>106</v>
       </c>
-      <c r="E126" s="7">
-        <f t="shared" si="4"/>
-        <v>5740.7374614867122</v>
-      </c>
-      <c r="F126" s="7">
-        <f t="shared" si="3"/>
-        <v>574073.74614867126</v>
+      <c r="E126" s="6">
+        <f t="shared" si="4"/>
+        <v>1822.8143676044649</v>
+      </c>
+      <c r="F126" s="6">
+        <f t="shared" si="3"/>
+        <v>182281.43676044649</v>
       </c>
     </row>
     <row r="127" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>107</v>
       </c>
-      <c r="E127" s="7">
-        <f t="shared" si="4"/>
-        <v>5841.6602030215627</v>
-      </c>
-      <c r="F127" s="7">
-        <f t="shared" si="3"/>
-        <v>584166.02030215622</v>
+      <c r="E127" s="6">
+        <f t="shared" si="4"/>
+        <v>1850.5800759346237</v>
+      </c>
+      <c r="F127" s="6">
+        <f t="shared" si="3"/>
+        <v>185058.00759346236</v>
       </c>
     </row>
     <row r="128" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>108</v>
       </c>
-      <c r="E128" s="7">
-        <f t="shared" si="4"/>
-        <v>5943.39357142276</v>
-      </c>
-      <c r="F128" s="7">
-        <f t="shared" si="3"/>
-        <v>594339.35714227601</v>
+      <c r="E128" s="6">
+        <f t="shared" si="4"/>
+        <v>1878.5045284227006</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="3"/>
+        <v>187850.45284227005</v>
       </c>
     </row>
     <row r="129" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>109</v>
       </c>
-      <c r="E129" s="7">
-        <f t="shared" si="4"/>
-        <v>6045.9364815285717</v>
-      </c>
-      <c r="F129" s="7">
-        <f t="shared" si="3"/>
-        <v>604593.6481528572</v>
+      <c r="E129" s="6">
+        <f t="shared" si="4"/>
+        <v>1906.5871501874187</v>
+      </c>
+      <c r="F129" s="6">
+        <f t="shared" si="3"/>
+        <v>190658.71501874187</v>
       </c>
     </row>
     <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>110</v>
       </c>
-      <c r="E130" s="7">
-        <f t="shared" si="4"/>
-        <v>6149.2878596118917</v>
-      </c>
-      <c r="F130" s="7">
-        <f t="shared" si="3"/>
-        <v>614928.78596118919</v>
+      <c r="E130" s="6">
+        <f t="shared" si="4"/>
+        <v>1934.8273736994686</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="3"/>
+        <v>193482.73736994684</v>
       </c>
     </row>
     <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>111</v>
       </c>
-      <c r="E131" s="7">
-        <f t="shared" si="4"/>
-        <v>6253.446643156457</v>
-      </c>
-      <c r="F131" s="7">
-        <f t="shared" si="3"/>
-        <v>625344.6643156457</v>
+      <c r="E131" s="6">
+        <f t="shared" si="4"/>
+        <v>1963.2246386212826</v>
+      </c>
+      <c r="F131" s="6">
+        <f t="shared" si="3"/>
+        <v>196322.46386212826</v>
       </c>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>112</v>
       </c>
-      <c r="E132" s="7">
-        <f t="shared" si="4"/>
-        <v>6358.4117806395061</v>
-      </c>
-      <c r="F132" s="7">
-        <f t="shared" si="3"/>
-        <v>635841.17806395062</v>
+      <c r="E132" s="6">
+        <f t="shared" si="4"/>
+        <v>1991.7783916517792</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="3"/>
+        <v>199177.83916517792</v>
       </c>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>113</v>
       </c>
-      <c r="E133" s="7">
-        <f t="shared" si="4"/>
-        <v>6464.1822313204348</v>
-      </c>
-      <c r="F133" s="7">
-        <f t="shared" si="3"/>
-        <v>646418.22313204349</v>
+      <c r="E133" s="6">
+        <f t="shared" si="4"/>
+        <v>2020.4880863757758</v>
+      </c>
+      <c r="F133" s="6">
+        <f t="shared" si="3"/>
+        <v>202048.80863757757</v>
       </c>
     </row>
     <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>114</v>
       </c>
-      <c r="E134" s="7">
-        <f t="shared" si="4"/>
-        <v>6570.7569650354953</v>
-      </c>
-      <c r="F134" s="7">
-        <f t="shared" si="3"/>
-        <v>657075.69650354958</v>
+      <c r="E134" s="6">
+        <f t="shared" si="4"/>
+        <v>2049.3531831179439</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" si="3"/>
+        <v>204935.3183117944</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>115</v>
       </c>
-      <c r="E135" s="7">
-        <f t="shared" si="4"/>
-        <v>6678.1349619980956</v>
-      </c>
-      <c r="F135" s="7">
-        <f t="shared" si="3"/>
-        <v>667813.4961998096</v>
+      <c r="E135" s="6">
+        <f t="shared" si="4"/>
+        <v>2078.3731488011272</v>
+      </c>
+      <c r="F135" s="6">
+        <f t="shared" si="3"/>
+        <v>207837.31488011271</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>116</v>
       </c>
-      <c r="E136" s="7">
-        <f t="shared" si="4"/>
-        <v>6786.3152126045761</v>
-      </c>
-      <c r="F136" s="7">
-        <f t="shared" si="3"/>
-        <v>678631.52126045758</v>
+      <c r="E136" s="6">
+        <f t="shared" si="4"/>
+        <v>2107.5474568088453</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="3"/>
+        <v>210754.74568088452</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>117</v>
       </c>
-      <c r="E137" s="7">
-        <f t="shared" si="4"/>
-        <v>6895.2967172453591</v>
-      </c>
-      <c r="F137" s="7">
-        <f t="shared" si="3"/>
-        <v>689529.67172453587</v>
+      <c r="E137" s="6">
+        <f t="shared" si="4"/>
+        <v>2136.8755868518197</v>
+      </c>
+      <c r="F137" s="6">
+        <f t="shared" si="3"/>
+        <v>213687.55868518195</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>118</v>
       </c>
-      <c r="E138" s="7">
-        <f t="shared" si="4"/>
-        <v>7005.0784861210432</v>
-      </c>
-      <c r="F138" s="7">
-        <f t="shared" si="3"/>
-        <v>700507.84861210431</v>
+      <c r="E138" s="6">
+        <f t="shared" si="4"/>
+        <v>2166.3570248383694</v>
+      </c>
+      <c r="F138" s="6">
+        <f t="shared" si="3"/>
+        <v>216635.70248383694</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>119</v>
       </c>
-      <c r="E139" s="7">
-        <f t="shared" si="4"/>
-        <v>7115.6595390635475</v>
-      </c>
-      <c r="F139" s="7">
-        <f t="shared" si="3"/>
-        <v>711565.95390635473</v>
+      <c r="E139" s="6">
+        <f t="shared" si="4"/>
+        <v>2195.9912627485724</v>
+      </c>
+      <c r="F139" s="6">
+        <f t="shared" si="3"/>
+        <v>219599.12627485723</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>120</v>
       </c>
-      <c r="E140" s="7">
-        <f t="shared" si="4"/>
-        <v>7227.0389053619429</v>
-      </c>
-      <c r="F140" s="7">
-        <f t="shared" si="3"/>
-        <v>722703.89053619432</v>
+      <c r="E140" s="6">
+        <f t="shared" si="4"/>
+        <v>2225.7777985119851</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="3"/>
+        <v>222577.77985119852</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>121</v>
       </c>
-      <c r="E141" s="7">
-        <f t="shared" si="4"/>
-        <v>7339.2156235928887</v>
-      </c>
-      <c r="F141" s="7">
-        <f t="shared" si="3"/>
-        <v>733921.56235928892</v>
+      <c r="E141" s="6">
+        <f t="shared" si="4"/>
+        <v>2255.7161358888484</v>
+      </c>
+      <c r="F141" s="6">
+        <f t="shared" si="3"/>
+        <v>225571.61358888485</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>122</v>
       </c>
-      <c r="E142" s="7">
-        <f t="shared" si="4"/>
-        <v>7452.1887414554203</v>
-      </c>
-      <c r="F142" s="7">
-        <f t="shared" si="3"/>
-        <v>745218.87414554204</v>
+      <c r="E142" s="6">
+        <f t="shared" si="4"/>
+        <v>2285.8057843546158</v>
+      </c>
+      <c r="F142" s="6">
+        <f t="shared" si="3"/>
+        <v>228580.57843546156</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>123</v>
       </c>
-      <c r="E143" s="7">
-        <f t="shared" si="4"/>
-        <v>7565.9573156101078</v>
-      </c>
-      <c r="F143" s="7">
-        <f t="shared" si="3"/>
-        <v>756595.73156101082</v>
+      <c r="E143" s="6">
+        <f t="shared" si="4"/>
+        <v>2316.0462589877056</v>
+      </c>
+      <c r="F143" s="6">
+        <f t="shared" si="3"/>
+        <v>231604.62589877055</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>124</v>
       </c>
-      <c r="E144" s="7">
-        <f t="shared" si="4"/>
-        <v>7680.5204115222969</v>
-      </c>
-      <c r="F144" s="7">
-        <f t="shared" si="3"/>
-        <v>768052.04115222965</v>
+      <c r="E144" s="6">
+        <f t="shared" si="4"/>
+        <v>2346.4370803603711</v>
+      </c>
+      <c r="F144" s="6">
+        <f t="shared" si="3"/>
+        <v>234643.7080360371</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>125</v>
       </c>
-      <c r="E145" s="7">
-        <f t="shared" si="4"/>
-        <v>7795.8771033092989</v>
-      </c>
-      <c r="F145" s="7">
-        <f t="shared" si="3"/>
-        <v>779587.71033092984</v>
+      <c r="E145" s="6">
+        <f t="shared" si="4"/>
+        <v>2376.9777744325179</v>
+      </c>
+      <c r="F145" s="6">
+        <f t="shared" si="3"/>
+        <v>237697.77744325178</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>126</v>
       </c>
-      <c r="E146" s="7">
-        <f t="shared" si="4"/>
-        <v>7912.026473591508</v>
-      </c>
-      <c r="F146" s="7">
-        <f t="shared" si="3"/>
-        <v>791202.64735915081</v>
+      <c r="E146" s="6">
+        <f t="shared" si="4"/>
+        <v>2407.6678724484482</v>
+      </c>
+      <c r="F146" s="6">
+        <f t="shared" si="3"/>
+        <v>240766.78724484483</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>127</v>
       </c>
-      <c r="E147" s="7">
-        <f t="shared" si="4"/>
-        <v>8028.9676133471985</v>
-      </c>
-      <c r="F147" s="7">
-        <f t="shared" si="3"/>
-        <v>802896.76133471983</v>
+      <c r="E147" s="6">
+        <f t="shared" si="4"/>
+        <v>2438.5069108363891</v>
+      </c>
+      <c r="F147" s="6">
+        <f t="shared" si="3"/>
+        <v>243850.6910836389</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>128</v>
       </c>
-      <c r="E148" s="7">
-        <f t="shared" si="4"/>
-        <v>8146.6996217709766</v>
-      </c>
-      <c r="F148" s="7">
-        <f t="shared" si="3"/>
-        <v>814669.96217709768</v>
+      <c r="E148" s="6">
+        <f t="shared" si="4"/>
+        <v>2469.4944311106779</v>
+      </c>
+      <c r="F148" s="6">
+        <f t="shared" si="3"/>
+        <v>246949.44311106778</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>129</v>
       </c>
-      <c r="E149" s="7">
-        <f t="shared" si="4"/>
-        <v>8265.2216061356157</v>
-      </c>
-      <c r="F149" s="7">
-        <f t="shared" si="3"/>
-        <v>826522.16061356151</v>
+      <c r="E149" s="6">
+        <f t="shared" si="4"/>
+        <v>2500.6299797765723</v>
+      </c>
+      <c r="F149" s="6">
+        <f t="shared" si="3"/>
+        <v>250062.99797765724</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C150">
         <v>130</v>
       </c>
-      <c r="E150" s="7">
-        <f t="shared" si="4"/>
-        <v>8384.532681657427</v>
-      </c>
-      <c r="F150" s="7">
+      <c r="E150" s="6">
+        <f t="shared" si="4"/>
+        <v>2531.9131082375588</v>
+      </c>
+      <c r="F150" s="6">
         <f t="shared" ref="F150:F213" si="5">E150*100</f>
-        <v>838453.26816574275</v>
+        <v>253191.31082375589</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C151">
         <v>131</v>
       </c>
-      <c r="E151" s="7">
-        <f t="shared" si="4"/>
-        <v>8504.6319713647463</v>
-      </c>
-      <c r="F151" s="7">
-        <f t="shared" si="5"/>
-        <v>850463.19713647466</v>
+      <c r="E151" s="6">
+        <f t="shared" si="4"/>
+        <v>2563.3433727050883</v>
+      </c>
+      <c r="F151" s="6">
+        <f t="shared" si="5"/>
+        <v>256334.33727050884</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C152">
         <v>132</v>
       </c>
-      <c r="E152" s="7">
-        <f t="shared" si="4"/>
-        <v>8625.5186059697244</v>
-      </c>
-      <c r="F152" s="7">
-        <f t="shared" si="5"/>
-        <v>862551.8605969724</v>
+      <c r="E152" s="6">
+        <f t="shared" si="4"/>
+        <v>2594.9203341106431</v>
+      </c>
+      <c r="F152" s="6">
+        <f t="shared" si="5"/>
+        <v>259492.0334110643</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C153">
         <v>133</v>
       </c>
-      <c r="E153" s="7">
-        <f t="shared" si="4"/>
-        <v>8747.1917237430189</v>
-      </c>
-      <c r="F153" s="7">
-        <f t="shared" si="5"/>
-        <v>874719.17237430194</v>
+      <c r="E153" s="6">
+        <f t="shared" si="4"/>
+        <v>2626.64355802008</v>
+      </c>
+      <c r="F153" s="6">
+        <f t="shared" si="5"/>
+        <v>262664.35580200801</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C154">
         <v>134</v>
       </c>
-      <c r="E154" s="7">
-        <f t="shared" si="4"/>
-        <v>8869.6504703916471</v>
-      </c>
-      <c r="F154" s="7">
-        <f t="shared" si="5"/>
-        <v>886965.0470391647</v>
+      <c r="E154" s="6">
+        <f t="shared" si="4"/>
+        <v>2658.5126145501504</v>
+      </c>
+      <c r="F154" s="6">
+        <f t="shared" si="5"/>
+        <v>265851.26145501505</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C155">
         <v>135</v>
       </c>
-      <c r="E155" s="7">
-        <f t="shared" si="4"/>
-        <v>8992.8939989395549</v>
-      </c>
-      <c r="F155" s="7">
-        <f t="shared" si="5"/>
-        <v>899289.39989395544</v>
+      <c r="E155" s="6">
+        <f t="shared" si="4"/>
+        <v>2690.5270782871507</v>
+      </c>
+      <c r="F155" s="6">
+        <f t="shared" si="5"/>
+        <v>269052.70782871509</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C156">
         <v>136</v>
       </c>
-      <c r="E156" s="7">
-        <f t="shared" si="4"/>
-        <v>9116.9214696110357</v>
-      </c>
-      <c r="F156" s="7">
-        <f t="shared" si="5"/>
-        <v>911692.14696110354</v>
+      <c r="E156" s="6">
+        <f t="shared" si="4"/>
+        <v>2722.6865282076024</v>
+      </c>
+      <c r="F156" s="6">
+        <f t="shared" si="5"/>
+        <v>272268.65282076021</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C157">
         <v>137</v>
       </c>
-      <c r="E157" s="7">
-        <f t="shared" si="4"/>
-        <v>9241.7320497169094</v>
-      </c>
-      <c r="F157" s="7">
-        <f t="shared" si="5"/>
-        <v>924173.2049716909</v>
+      <c r="E157" s="6">
+        <f t="shared" si="4"/>
+        <v>2754.9905476009308</v>
+      </c>
+      <c r="F157" s="6">
+        <f t="shared" si="5"/>
+        <v>275499.0547600931</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C158">
         <v>138</v>
       </c>
-      <c r="E158" s="7">
-        <f t="shared" si="4"/>
-        <v>9367.3249135432434</v>
-      </c>
-      <c r="F158" s="7">
-        <f t="shared" si="5"/>
-        <v>936732.49135432439</v>
+      <c r="E158" s="6">
+        <f t="shared" si="4"/>
+        <v>2787.4387239940575</v>
+      </c>
+      <c r="F158" s="6">
+        <f t="shared" si="5"/>
+        <v>278743.87239940575</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C159">
         <v>139</v>
       </c>
-      <c r="E159" s="7">
-        <f t="shared" si="4"/>
-        <v>9493.6992422425956</v>
-      </c>
-      <c r="F159" s="7">
-        <f t="shared" si="5"/>
-        <v>949369.92422425956</v>
+      <c r="E159" s="6">
+        <f t="shared" si="4"/>
+        <v>2820.0306490778312</v>
+      </c>
+      <c r="F159" s="6">
+        <f t="shared" si="5"/>
+        <v>282003.06490778312</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C160">
         <v>140</v>
       </c>
-      <c r="E160" s="7">
-        <f t="shared" si="4"/>
-        <v>9620.8542237278289</v>
-      </c>
-      <c r="F160" s="7">
-        <f t="shared" si="5"/>
-        <v>962085.42237278284</v>
+      <c r="E160" s="6">
+        <f t="shared" si="4"/>
+        <v>2852.7659186352948</v>
+      </c>
+      <c r="F160" s="6">
+        <f t="shared" si="5"/>
+        <v>285276.59186352947</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C161">
         <v>141</v>
       </c>
-      <c r="E161" s="7">
-        <f t="shared" si="4"/>
-        <v>9748.7890525682869</v>
-      </c>
-      <c r="F161" s="7">
-        <f t="shared" si="5"/>
-        <v>974878.90525682864</v>
+      <c r="E161" s="6">
+        <f t="shared" si="4"/>
+        <v>2885.6441324716525</v>
+      </c>
+      <c r="F161" s="6">
+        <f t="shared" si="5"/>
+        <v>288564.41324716527</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C162">
         <v>142</v>
       </c>
-      <c r="E162" s="7">
-        <f t="shared" si="4"/>
-        <v>9877.5029298881327</v>
-      </c>
-      <c r="F162" s="7">
-        <f t="shared" si="5"/>
-        <v>987750.29298881325</v>
+      <c r="E162" s="6">
+        <f t="shared" si="4"/>
+        <v>2918.6648943459431</v>
+      </c>
+      <c r="F162" s="6">
+        <f t="shared" si="5"/>
+        <v>291866.48943459429</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C163">
         <v>143</v>
       </c>
-      <c r="E163" s="7">
-        <f t="shared" si="4"/>
-        <v>10006.995063267239</v>
-      </c>
-      <c r="F163" s="7">
-        <f t="shared" si="5"/>
-        <v>1000699.5063267238</v>
+      <c r="E163" s="6">
+        <f t="shared" si="4"/>
+        <v>2951.8278119043566</v>
+      </c>
+      <c r="F163" s="6">
+        <f t="shared" si="5"/>
+        <v>295182.78119043563</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C164">
         <v>144</v>
       </c>
-      <c r="E164" s="7">
-        <f t="shared" si="4"/>
-        <v>10137.264666644011</v>
-      </c>
-      <c r="F164" s="7">
-        <f t="shared" si="5"/>
-        <v>1013726.466664401</v>
+      <c r="E164" s="6">
+        <f t="shared" si="4"/>
+        <v>2985.132496615126</v>
+      </c>
+      <c r="F164" s="6">
+        <f t="shared" si="5"/>
+        <v>298513.24966151261</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C165">
         <v>145</v>
       </c>
-      <c r="E165" s="7">
-        <f t="shared" si="4"/>
-        <v>10268.310960220419</v>
-      </c>
-      <c r="F165" s="7">
-        <f t="shared" si="5"/>
-        <v>1026831.0960220419</v>
+      <c r="E165" s="6">
+        <f t="shared" si="4"/>
+        <v>3018.5785637049407</v>
+      </c>
+      <c r="F165" s="6">
+        <f t="shared" si="5"/>
+        <v>301857.85637049406</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C166">
         <v>146</v>
       </c>
-      <c r="E166" s="7">
-        <f t="shared" si="4"/>
-        <v>10400.133170369179</v>
-      </c>
-      <c r="F166" s="7">
-        <f t="shared" si="5"/>
-        <v>1040013.3170369179</v>
+      <c r="E166" s="6">
+        <f t="shared" si="4"/>
+        <v>3052.1656320968859</v>
+      </c>
+      <c r="F166" s="6">
+        <f t="shared" si="5"/>
+        <v>305216.56320968858</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C167">
         <v>147</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="6">
         <f t="shared" ref="E167:E230" si="6">C167^$D$21</f>
-        <v>10532.730529542792</v>
-      </c>
-      <c r="F167" s="7">
-        <f t="shared" si="5"/>
-        <v>1053273.0529542791</v>
+        <v>3085.8933243497768</v>
+      </c>
+      <c r="F167" s="6">
+        <f t="shared" si="5"/>
+        <v>308589.3324349777</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C168">
         <v>148</v>
       </c>
-      <c r="E168" s="7">
-        <f t="shared" si="6"/>
-        <v>10666.102276184656</v>
-      </c>
-      <c r="F168" s="7">
-        <f t="shared" si="5"/>
-        <v>1066610.2276184657</v>
+      <c r="E168" s="6">
+        <f t="shared" si="6"/>
+        <v>3119.7612665989586</v>
+      </c>
+      <c r="F168" s="6">
+        <f t="shared" si="5"/>
+        <v>311976.12665989588</v>
       </c>
     </row>
     <row r="169" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C169">
         <v>149</v>
       </c>
-      <c r="E169" s="7">
-        <f t="shared" si="6"/>
-        <v>10800.247654642018</v>
-      </c>
-      <c r="F169" s="7">
-        <f t="shared" si="5"/>
-        <v>1080024.7654642018</v>
+      <c r="E169" s="6">
+        <f t="shared" si="6"/>
+        <v>3153.7690884983881</v>
+      </c>
+      <c r="F169" s="6">
+        <f t="shared" si="5"/>
+        <v>315376.90884983883</v>
       </c>
     </row>
     <row r="170" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C170">
         <v>150</v>
       </c>
-      <c r="E170" s="7">
-        <f t="shared" si="6"/>
-        <v>10935.165915080732</v>
-      </c>
-      <c r="F170" s="7">
-        <f t="shared" si="5"/>
-        <v>1093516.5915080733</v>
+      <c r="E170" s="6">
+        <f t="shared" si="6"/>
+        <v>3187.9164231640989</v>
+      </c>
+      <c r="F170" s="6">
+        <f t="shared" si="5"/>
+        <v>318791.64231640991</v>
       </c>
     </row>
     <row r="171" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C171">
         <v>151</v>
       </c>
-      <c r="E171" s="7">
-        <f t="shared" si="6"/>
-        <v>11070.856313401908</v>
-      </c>
-      <c r="F171" s="7">
-        <f t="shared" si="5"/>
-        <v>1107085.6313401908</v>
+      <c r="E171" s="6">
+        <f t="shared" si="6"/>
+        <v>3222.2029071189431</v>
+      </c>
+      <c r="F171" s="6">
+        <f t="shared" si="5"/>
+        <v>322220.29071189434</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C172">
         <v>152</v>
       </c>
-      <c r="E172" s="7">
-        <f t="shared" si="6"/>
-        <v>11207.318111160195</v>
-      </c>
-      <c r="F172" s="7">
-        <f t="shared" si="5"/>
-        <v>1120731.8111160195</v>
+      <c r="E172" s="6">
+        <f t="shared" si="6"/>
+        <v>3256.6281802385147</v>
+      </c>
+      <c r="F172" s="6">
+        <f t="shared" si="5"/>
+        <v>325662.81802385149</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C173">
         <v>153</v>
       </c>
-      <c r="E173" s="7">
-        <f t="shared" si="6"/>
-        <v>11344.550575483847</v>
-      </c>
-      <c r="F173" s="7">
-        <f t="shared" si="5"/>
-        <v>1134455.0575483846</v>
+      <c r="E173" s="6">
+        <f t="shared" si="6"/>
+        <v>3291.1918856983489</v>
+      </c>
+      <c r="F173" s="6">
+        <f t="shared" si="5"/>
+        <v>329119.18856983486</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C174">
         <v>154</v>
       </c>
-      <c r="E174" s="7">
-        <f t="shared" si="6"/>
-        <v>11482.552978996438</v>
-      </c>
-      <c r="F174" s="7">
-        <f t="shared" si="5"/>
-        <v>1148255.2978996439</v>
+      <c r="E174" s="6">
+        <f t="shared" si="6"/>
+        <v>3325.8936699222841</v>
+      </c>
+      <c r="F174" s="6">
+        <f t="shared" si="5"/>
+        <v>332589.36699222843</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C175">
         <v>155</v>
       </c>
-      <c r="E175" s="7">
-        <f t="shared" si="6"/>
-        <v>11621.324599739955</v>
-      </c>
-      <c r="F175" s="7">
-        <f t="shared" si="5"/>
-        <v>1162132.4599739956</v>
+      <c r="E175" s="6">
+        <f t="shared" si="6"/>
+        <v>3360.7331825319102</v>
+      </c>
+      <c r="F175" s="6">
+        <f t="shared" si="5"/>
+        <v>336073.31825319101</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C176">
         <v>156</v>
       </c>
-      <c r="E176" s="7">
-        <f t="shared" si="6"/>
-        <v>11760.864721099892</v>
-      </c>
-      <c r="F176" s="7">
-        <f t="shared" si="5"/>
-        <v>1176086.4721099893</v>
+      <c r="E176" s="6">
+        <f t="shared" si="6"/>
+        <v>3395.7100762972004</v>
+      </c>
+      <c r="F176" s="6">
+        <f t="shared" si="5"/>
+        <v>339571.00762972003</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C177">
         <v>157</v>
       </c>
-      <c r="E177" s="7">
-        <f t="shared" si="6"/>
-        <v>11901.172631731426</v>
-      </c>
-      <c r="F177" s="7">
-        <f t="shared" si="5"/>
-        <v>1190117.2631731427</v>
+      <c r="E177" s="6">
+        <f t="shared" si="6"/>
+        <v>3430.8240070881575</v>
+      </c>
+      <c r="F177" s="6">
+        <f t="shared" si="5"/>
+        <v>343082.40070881572</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C178">
         <v>158</v>
       </c>
-      <c r="E178" s="7">
-        <f t="shared" si="6"/>
-        <v>12042.24762548738</v>
-      </c>
-      <c r="F178" s="7">
-        <f t="shared" si="5"/>
-        <v>1204224.7625487379</v>
+      <c r="E178" s="6">
+        <f t="shared" si="6"/>
+        <v>3466.0746338275435</v>
+      </c>
+      <c r="F178" s="6">
+        <f t="shared" si="5"/>
+        <v>346607.46338275436</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C179">
         <v>159</v>
       </c>
-      <c r="E179" s="7">
-        <f t="shared" si="6"/>
-        <v>12184.089001347307</v>
-      </c>
-      <c r="F179" s="7">
-        <f t="shared" si="5"/>
-        <v>1218408.9001347306</v>
+      <c r="E179" s="6">
+        <f t="shared" si="6"/>
+        <v>3501.4616184445808</v>
+      </c>
+      <c r="F179" s="6">
+        <f t="shared" si="5"/>
+        <v>350146.16184445808</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C180">
         <v>160</v>
       </c>
-      <c r="E180" s="7">
-        <f t="shared" si="6"/>
-        <v>12326.69606334842</v>
-      </c>
-      <c r="F180" s="7">
-        <f t="shared" si="5"/>
-        <v>1232669.606334842</v>
+      <c r="E180" s="6">
+        <f t="shared" si="6"/>
+        <v>3536.9846258297239</v>
+      </c>
+      <c r="F180" s="6">
+        <f t="shared" si="5"/>
+        <v>353698.46258297237</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C181">
         <v>161</v>
       </c>
-      <c r="E181" s="7">
-        <f t="shared" si="6"/>
-        <v>12470.06812051747</v>
-      </c>
-      <c r="F181" s="7">
-        <f t="shared" si="5"/>
-        <v>1247006.812051747</v>
+      <c r="E181" s="6">
+        <f t="shared" si="6"/>
+        <v>3572.6433237902938</v>
+      </c>
+      <c r="F181" s="6">
+        <f t="shared" si="5"/>
+        <v>357264.33237902937</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C182">
         <v>162</v>
       </c>
-      <c r="E182" s="7">
-        <f t="shared" si="6"/>
-        <v>12614.204486804127</v>
-      </c>
-      <c r="F182" s="7">
-        <f t="shared" si="5"/>
-        <v>1261420.4486804127</v>
+      <c r="E182" s="6">
+        <f t="shared" si="6"/>
+        <v>3608.4373830071077</v>
+      </c>
+      <c r="F182" s="6">
+        <f t="shared" si="5"/>
+        <v>360843.73830071074</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C183">
         <v>163</v>
       </c>
-      <c r="E183" s="7">
-        <f t="shared" si="6"/>
-        <v>12759.104481015764</v>
-      </c>
-      <c r="F183" s="7">
-        <f t="shared" si="5"/>
-        <v>1275910.4481015764</v>
+      <c r="E183" s="6">
+        <f t="shared" si="6"/>
+        <v>3644.3664769920351</v>
+      </c>
+      <c r="F183" s="6">
+        <f t="shared" si="5"/>
+        <v>364436.64769920352</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C184">
         <v>164</v>
       </c>
-      <c r="E184" s="7">
-        <f t="shared" si="6"/>
-        <v>12904.767426753277</v>
-      </c>
-      <c r="F184" s="7">
-        <f t="shared" si="5"/>
-        <v>1290476.7426753277</v>
+      <c r="E184" s="6">
+        <f t="shared" si="6"/>
+        <v>3680.4302820463531</v>
+      </c>
+      <c r="F184" s="6">
+        <f t="shared" si="5"/>
+        <v>368043.02820463531</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C185">
         <v>165</v>
       </c>
-      <c r="E185" s="7">
-        <f t="shared" si="6"/>
-        <v>13051.192652348236</v>
-      </c>
-      <c r="F185" s="7">
-        <f t="shared" si="5"/>
-        <v>1305119.2652348236</v>
+      <c r="E185" s="6">
+        <f t="shared" si="6"/>
+        <v>3716.6284772200511</v>
+      </c>
+      <c r="F185" s="6">
+        <f t="shared" si="5"/>
+        <v>371662.8477220051</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C186">
         <v>166</v>
       </c>
-      <c r="E186" s="7">
-        <f t="shared" si="6"/>
-        <v>13198.379490801468</v>
-      </c>
-      <c r="F186" s="7">
-        <f t="shared" si="5"/>
-        <v>1319837.9490801468</v>
+      <c r="E186" s="6">
+        <f t="shared" si="6"/>
+        <v>3752.9607442719698</v>
+      </c>
+      <c r="F186" s="6">
+        <f t="shared" si="5"/>
+        <v>375296.07442719699</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C187">
         <v>167</v>
       </c>
-      <c r="E187" s="7">
-        <f t="shared" si="6"/>
-        <v>13346.327279722274</v>
-      </c>
-      <c r="F187" s="7">
-        <f t="shared" si="5"/>
-        <v>1334632.7279722274</v>
+      <c r="E187" s="6">
+        <f t="shared" si="6"/>
+        <v>3789.4267676306554</v>
+      </c>
+      <c r="F187" s="6">
+        <f t="shared" si="5"/>
+        <v>378942.67676306551</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C188">
         <v>168</v>
       </c>
-      <c r="E188" s="7">
-        <f t="shared" si="6"/>
-        <v>13495.035361269373</v>
-      </c>
-      <c r="F188" s="7">
-        <f t="shared" si="5"/>
-        <v>1349503.5361269373</v>
+      <c r="E188" s="6">
+        <f t="shared" si="6"/>
+        <v>3826.0262343561453</v>
+      </c>
+      <c r="F188" s="6">
+        <f t="shared" si="5"/>
+        <v>382602.62343561451</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C189">
         <v>169</v>
       </c>
-      <c r="E189" s="7">
-        <f t="shared" si="6"/>
-        <v>13644.50308209254</v>
-      </c>
-      <c r="F189" s="7">
-        <f t="shared" si="5"/>
-        <v>1364450.3082092539</v>
+      <c r="E189" s="6">
+        <f t="shared" si="6"/>
+        <v>3862.7588341024361</v>
+      </c>
+      <c r="F189" s="6">
+        <f t="shared" si="5"/>
+        <v>386275.88341024361</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C190">
         <v>170</v>
       </c>
-      <c r="E190" s="7">
-        <f t="shared" si="6"/>
-        <v>13794.72979327561</v>
-      </c>
-      <c r="F190" s="7">
-        <f t="shared" si="5"/>
-        <v>1379472.9793275611</v>
+      <c r="E190" s="6">
+        <f t="shared" si="6"/>
+        <v>3899.6242590807387</v>
+      </c>
+      <c r="F190" s="6">
+        <f t="shared" si="5"/>
+        <v>389962.4259080739</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C191">
         <v>171</v>
       </c>
-      <c r="E191" s="7">
-        <f t="shared" si="6"/>
-        <v>13945.714850280217</v>
-      </c>
-      <c r="F191" s="7">
-        <f t="shared" si="5"/>
-        <v>1394571.4850280217</v>
+      <c r="E191" s="6">
+        <f t="shared" si="6"/>
+        <v>3936.6222040234579</v>
+      </c>
+      <c r="F191" s="6">
+        <f t="shared" si="5"/>
+        <v>393662.22040234582</v>
       </c>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C192">
         <v>172</v>
       </c>
-      <c r="E192" s="7">
-        <f t="shared" si="6"/>
-        <v>14097.457612891003</v>
-      </c>
-      <c r="F192" s="7">
-        <f t="shared" si="5"/>
-        <v>1409745.7612891004</v>
+      <c r="E192" s="6">
+        <f t="shared" si="6"/>
+        <v>3973.7523661488731</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="5"/>
+        <v>397375.23661488731</v>
       </c>
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C193">
         <v>173</v>
       </c>
-      <c r="E193" s="7">
-        <f t="shared" si="6"/>
-        <v>14249.957445161475</v>
-      </c>
-      <c r="F193" s="7">
-        <f t="shared" si="5"/>
-        <v>1424995.7445161475</v>
+      <c r="E193" s="6">
+        <f t="shared" si="6"/>
+        <v>4011.0144451265887</v>
+      </c>
+      <c r="F193" s="6">
+        <f t="shared" si="5"/>
+        <v>401101.44451265887</v>
       </c>
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C194">
         <v>174</v>
       </c>
-      <c r="E194" s="7">
-        <f t="shared" si="6"/>
-        <v>14403.213715360866</v>
-      </c>
-      <c r="F194" s="7">
-        <f t="shared" si="5"/>
-        <v>1440321.3715360865</v>
+      <c r="E194" s="6">
+        <f t="shared" si="6"/>
+        <v>4048.4081430435308</v>
+      </c>
+      <c r="F194" s="6">
+        <f t="shared" si="5"/>
+        <v>404840.81430435309</v>
       </c>
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C195">
         <v>175</v>
       </c>
-      <c r="E195" s="7">
-        <f t="shared" si="6"/>
-        <v>14557.225795922343</v>
-      </c>
-      <c r="F195" s="7">
-        <f t="shared" si="5"/>
-        <v>1455722.5795922342</v>
+      <c r="E195" s="6">
+        <f t="shared" si="6"/>
+        <v>4085.9331643707737</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="5"/>
+        <v>408593.31643707736</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C196">
         <v>176</v>
       </c>
-      <c r="E196" s="7">
-        <f t="shared" si="6"/>
-        <v>14711.993063391492</v>
-      </c>
-      <c r="F196" s="7">
-        <f t="shared" si="5"/>
-        <v>1471199.3063391491</v>
+      <c r="E196" s="6">
+        <f t="shared" si="6"/>
+        <v>4123.5892159308214</v>
+      </c>
+      <c r="F196" s="6">
+        <f t="shared" si="5"/>
+        <v>412358.92159308214</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C197">
         <v>177</v>
       </c>
-      <c r="E197" s="7">
-        <f t="shared" si="6"/>
-        <v>14867.514898376521</v>
-      </c>
-      <c r="F197" s="7">
-        <f t="shared" si="5"/>
-        <v>1486751.4898376521</v>
+      <c r="E197" s="6">
+        <f t="shared" si="6"/>
+        <v>4161.3760068657266</v>
+      </c>
+      <c r="F197" s="6">
+        <f t="shared" si="5"/>
+        <v>416137.60068657267</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C198">
         <v>178</v>
       </c>
-      <c r="E198" s="7">
-        <f t="shared" si="6"/>
-        <v>15023.790685498541</v>
-      </c>
-      <c r="F198" s="7">
-        <f t="shared" si="5"/>
-        <v>1502379.0685498542</v>
+      <c r="E198" s="6">
+        <f t="shared" si="6"/>
+        <v>4199.2932486056161</v>
+      </c>
+      <c r="F198" s="6">
+        <f t="shared" si="5"/>
+        <v>419929.32486056164</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C199">
         <v>179</v>
       </c>
-      <c r="E199" s="7">
-        <f t="shared" si="6"/>
-        <v>15180.819813343353</v>
-      </c>
-      <c r="F199" s="7">
-        <f t="shared" si="5"/>
-        <v>1518081.9813343352</v>
+      <c r="E199" s="6">
+        <f t="shared" si="6"/>
+        <v>4237.3406548379789</v>
+      </c>
+      <c r="F199" s="6">
+        <f t="shared" si="5"/>
+        <v>423734.06548379792</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C200">
         <v>180</v>
       </c>
-      <c r="E200" s="7">
-        <f t="shared" si="6"/>
-        <v>15338.6016744137</v>
-      </c>
-      <c r="F200" s="7">
-        <f t="shared" si="5"/>
-        <v>1533860.16744137</v>
+      <c r="E200" s="6">
+        <f t="shared" si="6"/>
+        <v>4275.5179414774702</v>
+      </c>
+      <c r="F200" s="6">
+        <f t="shared" si="5"/>
+        <v>427551.79414774704</v>
       </c>
     </row>
     <row r="201" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C201">
         <v>181</v>
       </c>
-      <c r="E201" s="7">
-        <f t="shared" si="6"/>
-        <v>15497.135665082697</v>
-      </c>
-      <c r="F201" s="7">
-        <f t="shared" si="5"/>
-        <v>1549713.5665082696</v>
+      <c r="E201" s="6">
+        <f t="shared" si="6"/>
+        <v>4313.8248266362425</v>
+      </c>
+      <c r="F201" s="6">
+        <f t="shared" si="5"/>
+        <v>431382.48266362422</v>
       </c>
     </row>
     <row r="202" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C202">
         <v>182</v>
       </c>
-      <c r="E202" s="7">
-        <f t="shared" si="6"/>
-        <v>15656.421185547606</v>
-      </c>
-      <c r="F202" s="7">
-        <f t="shared" si="5"/>
-        <v>1565642.1185547607</v>
+      <c r="E202" s="6">
+        <f t="shared" si="6"/>
+        <v>4352.2610305949411</v>
+      </c>
+      <c r="F202" s="6">
+        <f t="shared" si="5"/>
+        <v>435226.10305949411</v>
       </c>
     </row>
     <row r="203" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C203">
         <v>183</v>
       </c>
-      <c r="E203" s="7">
-        <f t="shared" si="6"/>
-        <v>15816.457639784958</v>
-      </c>
-      <c r="F203" s="7">
-        <f t="shared" si="5"/>
-        <v>1581645.7639784957</v>
+      <c r="E203" s="6">
+        <f t="shared" si="6"/>
+        <v>4390.8262757741386</v>
+      </c>
+      <c r="F203" s="6">
+        <f t="shared" si="5"/>
+        <v>439082.62757741386</v>
       </c>
     </row>
     <row r="204" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C204">
         <v>184</v>
       </c>
-      <c r="E204" s="7">
-        <f t="shared" si="6"/>
-        <v>15977.244435505945</v>
-      </c>
-      <c r="F204" s="7">
-        <f t="shared" si="5"/>
-        <v>1597724.4435505946</v>
+      <c r="E204" s="6">
+        <f t="shared" si="6"/>
+        <v>4429.5202867063308</v>
+      </c>
+      <c r="F204" s="6">
+        <f t="shared" si="5"/>
+        <v>442952.0286706331</v>
       </c>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C205">
         <v>185</v>
       </c>
-      <c r="E205" s="7">
-        <f t="shared" si="6"/>
-        <v>16138.780984112906</v>
-      </c>
-      <c r="F205" s="7">
-        <f t="shared" si="5"/>
-        <v>1613878.0984112904</v>
+      <c r="E205" s="6">
+        <f t="shared" si="6"/>
+        <v>4468.3427900085098</v>
+      </c>
+      <c r="F205" s="6">
+        <f t="shared" si="5"/>
+        <v>446834.27900085098</v>
       </c>
     </row>
     <row r="206" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C206">
         <v>186</v>
       </c>
-      <c r="E206" s="7">
-        <f t="shared" si="6"/>
-        <v>16301.066700656491</v>
-      </c>
-      <c r="F206" s="7">
-        <f t="shared" si="5"/>
-        <v>1630106.6700656491</v>
+      <c r="E206" s="6">
+        <f t="shared" si="6"/>
+        <v>4507.2935143551576</v>
+      </c>
+      <c r="F206" s="6">
+        <f t="shared" si="5"/>
+        <v>450729.35143551574</v>
       </c>
     </row>
     <row r="207" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C207">
         <v>187</v>
       </c>
-      <c r="E207" s="7">
-        <f t="shared" si="6"/>
-        <v>16464.101003793388</v>
-      </c>
-      <c r="F207" s="7">
-        <f t="shared" si="5"/>
-        <v>1646410.100379339</v>
+      <c r="E207" s="6">
+        <f t="shared" si="6"/>
+        <v>4546.3721904517324</v>
+      </c>
+      <c r="F207" s="6">
+        <f t="shared" si="5"/>
+        <v>454637.21904517326</v>
       </c>
     </row>
     <row r="208" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C208">
         <v>188</v>
       </c>
-      <c r="E208" s="7">
-        <f t="shared" si="6"/>
-        <v>16627.883315744974</v>
-      </c>
-      <c r="F208" s="7">
-        <f t="shared" si="5"/>
-        <v>1662788.3315744973</v>
+      <c r="E208" s="6">
+        <f t="shared" si="6"/>
+        <v>4585.5785510087244</v>
+      </c>
+      <c r="F208" s="6">
+        <f t="shared" si="5"/>
+        <v>458557.85510087246</v>
       </c>
     </row>
     <row r="209" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C209">
         <v>189</v>
       </c>
-      <c r="E209" s="7">
-        <f t="shared" si="6"/>
-        <v>16792.413062256557</v>
-      </c>
-      <c r="F209" s="7">
-        <f t="shared" si="5"/>
-        <v>1679241.3062256556</v>
+      <c r="E209" s="6">
+        <f t="shared" si="6"/>
+        <v>4624.9123307161062</v>
+      </c>
+      <c r="F209" s="6">
+        <f t="shared" si="5"/>
+        <v>462491.23307161062</v>
       </c>
     </row>
     <row r="210" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C210">
         <v>190</v>
       </c>
-      <c r="E210" s="7">
-        <f t="shared" si="6"/>
-        <v>16957.689672557259</v>
-      </c>
-      <c r="F210" s="7">
-        <f t="shared" si="5"/>
-        <v>1695768.967255726</v>
+      <c r="E210" s="6">
+        <f t="shared" si="6"/>
+        <v>4664.3732662182283</v>
+      </c>
+      <c r="F210" s="6">
+        <f t="shared" si="5"/>
+        <v>466437.32662182284</v>
       </c>
     </row>
     <row r="211" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C211">
         <v>191</v>
       </c>
-      <c r="E211" s="7">
-        <f t="shared" si="6"/>
-        <v>17123.712579320745</v>
-      </c>
-      <c r="F211" s="7">
-        <f t="shared" si="5"/>
-        <v>1712371.2579320746</v>
+      <c r="E211" s="6">
+        <f t="shared" si="6"/>
+        <v>4703.9610960892605</v>
+      </c>
+      <c r="F211" s="6">
+        <f t="shared" si="5"/>
+        <v>470396.10960892605</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C212">
         <v>192</v>
       </c>
-      <c r="E212" s="7">
-        <f t="shared" si="6"/>
-        <v>17290.481218626232</v>
-      </c>
-      <c r="F212" s="7">
-        <f t="shared" si="5"/>
-        <v>1729048.1218626231</v>
+      <c r="E212" s="6">
+        <f t="shared" si="6"/>
+        <v>4743.6755608089234</v>
+      </c>
+      <c r="F212" s="6">
+        <f t="shared" si="5"/>
+        <v>474367.55608089233</v>
       </c>
     </row>
     <row r="213" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C213">
         <v>193</v>
       </c>
-      <c r="E213" s="7">
-        <f t="shared" si="6"/>
-        <v>17457.995029920628</v>
-      </c>
-      <c r="F213" s="7">
-        <f t="shared" si="5"/>
-        <v>1745799.5029920628</v>
+      <c r="E213" s="6">
+        <f t="shared" si="6"/>
+        <v>4783.5164027388082</v>
+      </c>
+      <c r="F213" s="6">
+        <f t="shared" si="5"/>
+        <v>478351.6402738808</v>
       </c>
     </row>
     <row r="214" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C214">
         <v>194</v>
       </c>
-      <c r="E214" s="7">
-        <f t="shared" si="6"/>
-        <v>17626.253455980896</v>
-      </c>
-      <c r="F214" s="7">
+      <c r="E214" s="6">
+        <f t="shared" si="6"/>
+        <v>4823.4833660989716</v>
+      </c>
+      <c r="F214" s="6">
         <f t="shared" ref="F214:F277" si="7">E214*100</f>
-        <v>1762625.3455980895</v>
+        <v>482348.33660989715</v>
       </c>
     </row>
     <row r="215" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C215">
         <v>195</v>
       </c>
-      <c r="E215" s="7">
-        <f t="shared" si="6"/>
-        <v>17795.255942877222</v>
-      </c>
-      <c r="F215" s="7">
-        <f t="shared" si="7"/>
-        <v>1779525.5942877221</v>
+      <c r="E215" s="6">
+        <f t="shared" si="6"/>
+        <v>4863.5761969450605</v>
+      </c>
+      <c r="F215" s="6">
+        <f t="shared" si="7"/>
+        <v>486357.61969450605</v>
       </c>
     </row>
     <row r="216" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C216">
         <v>196</v>
       </c>
-      <c r="E216" s="7">
-        <f t="shared" si="6"/>
-        <v>17965.001939936636</v>
-      </c>
-      <c r="F216" s="7">
-        <f t="shared" si="7"/>
-        <v>1796500.1939936636</v>
+      <c r="E216" s="6">
+        <f t="shared" si="6"/>
+        <v>4903.7946431457203</v>
+      </c>
+      <c r="F216" s="6">
+        <f t="shared" si="7"/>
+        <v>490379.46431457205</v>
       </c>
     </row>
     <row r="217" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C217">
         <v>197</v>
       </c>
-      <c r="E217" s="7">
-        <f t="shared" si="6"/>
-        <v>18135.490899707496</v>
-      </c>
-      <c r="F217" s="7">
-        <f t="shared" si="7"/>
-        <v>1813549.0899707496</v>
+      <c r="E217" s="6">
+        <f t="shared" si="6"/>
+        <v>4944.1384543605009</v>
+      </c>
+      <c r="F217" s="6">
+        <f t="shared" si="7"/>
+        <v>494413.84543605009</v>
       </c>
     </row>
     <row r="218" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C218">
         <v>198</v>
       </c>
-      <c r="E218" s="7">
-        <f t="shared" si="6"/>
-        <v>18306.722277924106</v>
-      </c>
-      <c r="F218" s="7">
-        <f t="shared" si="7"/>
-        <v>1830672.2277924106</v>
+      <c r="E218" s="6">
+        <f t="shared" si="6"/>
+        <v>4984.6073820180636</v>
+      </c>
+      <c r="F218" s="6">
+        <f t="shared" si="7"/>
+        <v>498460.73820180638</v>
       </c>
     </row>
     <row r="219" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C219">
         <v>199</v>
       </c>
-      <c r="E219" s="7">
-        <f t="shared" si="6"/>
-        <v>18478.695533472339</v>
-      </c>
-      <c r="F219" s="7">
-        <f t="shared" si="7"/>
-        <v>1847869.5533472339</v>
+      <c r="E219" s="6">
+        <f t="shared" si="6"/>
+        <v>5025.2011792948269</v>
+      </c>
+      <c r="F219" s="6">
+        <f t="shared" si="7"/>
+        <v>502520.11792948272</v>
       </c>
     </row>
     <row r="220" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C220">
         <v>200</v>
       </c>
-      <c r="E220" s="7">
-        <f t="shared" si="6"/>
-        <v>18651.410128355568</v>
-      </c>
-      <c r="F220" s="7">
-        <f t="shared" si="7"/>
-        <v>1865141.0128355569</v>
+      <c r="E220" s="6">
+        <f t="shared" si="6"/>
+        <v>5065.9196010939077</v>
+      </c>
+      <c r="F220" s="6">
+        <f t="shared" si="7"/>
+        <v>506591.96010939078</v>
       </c>
     </row>
     <row r="221" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C221">
         <v>201</v>
       </c>
-      <c r="E221" s="7">
-        <f t="shared" si="6"/>
-        <v>18824.865527661092</v>
-      </c>
-      <c r="F221" s="7">
-        <f t="shared" si="7"/>
-        <v>1882486.5527661091</v>
+      <c r="E221" s="6">
+        <f t="shared" si="6"/>
+        <v>5106.76240402446</v>
+      </c>
+      <c r="F221" s="6">
+        <f t="shared" si="7"/>
+        <v>510676.24040244601</v>
       </c>
     </row>
     <row r="222" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C222">
         <v>202</v>
       </c>
-      <c r="E222" s="7">
-        <f t="shared" si="6"/>
-        <v>18999.061199527223</v>
-      </c>
-      <c r="F222" s="7">
-        <f t="shared" si="7"/>
-        <v>1899906.1199527222</v>
+      <c r="E222" s="6">
+        <f t="shared" si="6"/>
+        <v>5147.7293463814012</v>
+      </c>
+      <c r="F222" s="6">
+        <f t="shared" si="7"/>
+        <v>514772.93463814014</v>
       </c>
     </row>
     <row r="223" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C223">
         <v>203</v>
       </c>
-      <c r="E223" s="7">
-        <f t="shared" si="6"/>
-        <v>19173.996615110831</v>
-      </c>
-      <c r="F223" s="7">
-        <f t="shared" si="7"/>
-        <v>1917399.6615110831</v>
+      <c r="E223" s="6">
+        <f t="shared" si="6"/>
+        <v>5188.8201881253499</v>
+      </c>
+      <c r="F223" s="6">
+        <f t="shared" si="7"/>
+        <v>518882.01881253498</v>
       </c>
     </row>
     <row r="224" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C224">
         <v>204</v>
       </c>
-      <c r="E224" s="7">
-        <f t="shared" si="6"/>
-        <v>19349.671248555471</v>
-      </c>
-      <c r="F224" s="7">
-        <f t="shared" si="7"/>
-        <v>1934967.124855547</v>
+      <c r="E224" s="6">
+        <f t="shared" si="6"/>
+        <v>5230.0346908631027</v>
+      </c>
+      <c r="F224" s="6">
+        <f t="shared" si="7"/>
+        <v>523003.46908631024</v>
       </c>
     </row>
     <row r="225" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C225">
         <v>205</v>
       </c>
-      <c r="E225" s="7">
-        <f t="shared" si="6"/>
-        <v>19526.084576959802</v>
-      </c>
-      <c r="F225" s="7">
-        <f t="shared" si="7"/>
-        <v>1952608.4576959801</v>
+      <c r="E225" s="6">
+        <f t="shared" si="6"/>
+        <v>5271.3726178282104</v>
+      </c>
+      <c r="F225" s="6">
+        <f t="shared" si="7"/>
+        <v>527137.26178282104</v>
       </c>
     </row>
     <row r="226" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C226">
         <v>206</v>
       </c>
-      <c r="E226" s="7">
-        <f t="shared" si="6"/>
-        <v>19703.236080346633</v>
-      </c>
-      <c r="F226" s="7">
-        <f t="shared" si="7"/>
-        <v>1970323.6080346634</v>
+      <c r="E226" s="6">
+        <f t="shared" si="6"/>
+        <v>5312.8337338620404</v>
+      </c>
+      <c r="F226" s="6">
+        <f t="shared" si="7"/>
+        <v>531283.37338620401</v>
       </c>
     </row>
     <row r="227" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C227">
         <v>207</v>
       </c>
-      <c r="E227" s="7">
-        <f t="shared" si="6"/>
-        <v>19881.125241632482</v>
-      </c>
-      <c r="F227" s="7">
-        <f t="shared" si="7"/>
-        <v>1988112.5241632483</v>
+      <c r="E227" s="6">
+        <f t="shared" si="6"/>
+        <v>5354.4178053950754</v>
+      </c>
+      <c r="F227" s="6">
+        <f t="shared" si="7"/>
+        <v>535441.78053950751</v>
       </c>
     </row>
     <row r="228" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C228">
         <v>208</v>
       </c>
-      <c r="E228" s="7">
-        <f t="shared" si="6"/>
-        <v>20059.75154659761</v>
-      </c>
-      <c r="F228" s="7">
-        <f t="shared" si="7"/>
-        <v>2005975.1546597611</v>
+      <c r="E228" s="6">
+        <f t="shared" si="6"/>
+        <v>5396.1246004285695</v>
+      </c>
+      <c r="F228" s="6">
+        <f t="shared" si="7"/>
+        <v>539612.46004285698</v>
       </c>
     </row>
     <row r="229" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C229">
         <v>209</v>
       </c>
-      <c r="E229" s="7">
-        <f t="shared" si="6"/>
-        <v>20239.114483856214</v>
-      </c>
-      <c r="F229" s="7">
-        <f t="shared" si="7"/>
-        <v>2023911.4483856214</v>
+      <c r="E229" s="6">
+        <f t="shared" si="6"/>
+        <v>5437.9538885164202</v>
+      </c>
+      <c r="F229" s="6">
+        <f t="shared" si="7"/>
+        <v>543795.38885164203</v>
       </c>
     </row>
     <row r="230" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C230">
         <v>210</v>
       </c>
-      <c r="E230" s="7">
-        <f t="shared" si="6"/>
-        <v>20419.213544827486</v>
-      </c>
-      <c r="F230" s="7">
-        <f t="shared" si="7"/>
-        <v>2041921.3544827485</v>
+      <c r="E230" s="6">
+        <f t="shared" si="6"/>
+        <v>5479.9054407474277</v>
+      </c>
+      <c r="F230" s="6">
+        <f t="shared" si="7"/>
+        <v>547990.54407474282</v>
       </c>
     </row>
     <row r="231" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C231">
         <v>211</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E231" s="6">
         <f t="shared" ref="E231:E283" si="8">C231^$D$21</f>
-        <v>20600.048223706945</v>
-      </c>
-      <c r="F231" s="7">
-        <f t="shared" si="7"/>
-        <v>2060004.8223706945</v>
+        <v>5521.9790297277841</v>
+      </c>
+      <c r="F231" s="6">
+        <f t="shared" si="7"/>
+        <v>552197.90297277842</v>
       </c>
     </row>
     <row r="232" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C232">
         <v>212</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E232" s="6">
         <f t="shared" si="8"/>
-        <v>20781.618017437926</v>
-      </c>
-      <c r="F232" s="7">
-        <f t="shared" si="7"/>
-        <v>2078161.8017437926</v>
+        <v>5564.1744295638618</v>
+      </c>
+      <c r="F232" s="6">
+        <f t="shared" si="7"/>
+        <v>556417.44295638613</v>
       </c>
     </row>
     <row r="233" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C233">
         <v>213</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E233" s="6">
         <f t="shared" si="8"/>
-        <v>20963.92242568405</v>
-      </c>
-      <c r="F233" s="7">
-        <f t="shared" si="7"/>
-        <v>2096392.2425684049</v>
+        <v>5606.4914158453139</v>
+      </c>
+      <c r="F233" s="6">
+        <f t="shared" si="7"/>
+        <v>560649.1415845314</v>
       </c>
     </row>
     <row r="234" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C234">
         <v>214</v>
       </c>
-      <c r="E234" s="7">
+      <c r="E234" s="6">
         <f t="shared" si="8"/>
-        <v>21146.960950801531</v>
-      </c>
-      <c r="F234" s="7">
-        <f t="shared" si="7"/>
-        <v>2114696.0950801531</v>
+        <v>5648.929765628297</v>
+      </c>
+      <c r="F234" s="6">
+        <f t="shared" si="7"/>
+        <v>564892.97656282969</v>
       </c>
     </row>
     <row r="235" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C235">
         <v>215</v>
       </c>
-      <c r="E235" s="7">
+      <c r="E235" s="6">
         <f t="shared" si="8"/>
-        <v>21330.733097812252</v>
-      </c>
-      <c r="F235" s="7">
-        <f t="shared" si="7"/>
-        <v>2133073.3097812254</v>
+        <v>5691.4892574192263</v>
+      </c>
+      <c r="F235" s="6">
+        <f t="shared" si="7"/>
+        <v>569148.92574192258</v>
       </c>
     </row>
     <row r="236" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C236">
         <v>216</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E236" s="6">
         <f t="shared" si="8"/>
-        <v>21515.238374377255</v>
-      </c>
-      <c r="F236" s="7">
-        <f t="shared" si="7"/>
-        <v>2151523.8374377256</v>
+        <v>5734.1696711585155</v>
+      </c>
+      <c r="F236" s="6">
+        <f t="shared" si="7"/>
+        <v>573416.96711585158</v>
       </c>
     </row>
     <row r="237" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C237">
         <v>217</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E237" s="6">
         <f t="shared" si="8"/>
-        <v>21700.476290770115</v>
-      </c>
-      <c r="F237" s="7">
-        <f t="shared" si="7"/>
-        <v>2170047.6290770117</v>
+        <v>5776.9707882046969</v>
+      </c>
+      <c r="F237" s="6">
+        <f t="shared" si="7"/>
+        <v>577697.07882046967</v>
       </c>
     </row>
     <row r="238" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C238">
         <v>218</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E238" s="6">
         <f t="shared" si="8"/>
-        <v>21886.446359851539</v>
-      </c>
-      <c r="F238" s="7">
-        <f t="shared" si="7"/>
-        <v>2188644.6359851537</v>
+        <v>5819.8923913188401</v>
+      </c>
+      <c r="F238" s="6">
+        <f t="shared" si="7"/>
+        <v>581989.23913188395</v>
       </c>
     </row>
     <row r="239" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C239">
         <v>219</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E239" s="6">
         <f t="shared" si="8"/>
-        <v>22073.148097043613</v>
-      </c>
-      <c r="F239" s="7">
-        <f t="shared" si="7"/>
-        <v>2207314.8097043615</v>
+        <v>5862.9342646490959</v>
+      </c>
+      <c r="F239" s="6">
+        <f t="shared" si="7"/>
+        <v>586293.42646490957</v>
       </c>
     </row>
     <row r="240" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C240">
         <v>220</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E240" s="6">
         <f t="shared" si="8"/>
-        <v>22260.581020304617</v>
-      </c>
-      <c r="F240" s="7">
-        <f t="shared" si="7"/>
-        <v>2226058.1020304617</v>
+        <v>5906.0961937155762</v>
+      </c>
+      <c r="F240" s="6">
+        <f t="shared" si="7"/>
+        <v>590609.61937155761</v>
       </c>
     </row>
     <row r="241" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C241">
         <v>221</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E241" s="6">
         <f t="shared" si="8"/>
-        <v>22448.744650104381</v>
-      </c>
-      <c r="F241" s="7">
-        <f t="shared" si="7"/>
-        <v>2244874.4650104381</v>
+        <v>5949.377965395387</v>
+      </c>
+      <c r="F241" s="6">
+        <f t="shared" si="7"/>
+        <v>594937.79653953866</v>
       </c>
     </row>
     <row r="242" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C242">
         <v>222</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E242" s="6">
         <f t="shared" si="8"/>
-        <v>22637.638509400029</v>
-      </c>
-      <c r="F242" s="7">
-        <f t="shared" si="7"/>
-        <v>2263763.8509400031</v>
+        <v>5992.7793679079996</v>
+      </c>
+      <c r="F242" s="6">
+        <f t="shared" si="7"/>
+        <v>599277.93679079995</v>
       </c>
     </row>
     <row r="243" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C243">
         <v>223</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E243" s="6">
         <f t="shared" si="8"/>
-        <v>22827.262123611519</v>
-      </c>
-      <c r="F243" s="7">
-        <f t="shared" si="7"/>
-        <v>2282726.2123611518</v>
+        <v>6036.3001908006954</v>
+      </c>
+      <c r="F243" s="6">
+        <f t="shared" si="7"/>
+        <v>603630.0190800695</v>
       </c>
     </row>
     <row r="244" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C244">
         <v>224</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E244" s="6">
         <f t="shared" si="8"/>
-        <v>23017.615020598234</v>
-      </c>
-      <c r="F244" s="7">
-        <f t="shared" si="7"/>
-        <v>2301761.5020598234</v>
+        <v>6079.9402249343611</v>
+      </c>
+      <c r="F244" s="6">
+        <f t="shared" si="7"/>
+        <v>607994.02249343612</v>
       </c>
     </row>
     <row r="245" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C245">
         <v>225</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E245" s="6">
         <f t="shared" si="8"/>
-        <v>23208.696730635453</v>
-      </c>
-      <c r="F245" s="7">
-        <f t="shared" si="7"/>
-        <v>2320869.6730635455</v>
+        <v>6123.6992624694858</v>
+      </c>
+      <c r="F245" s="6">
+        <f t="shared" si="7"/>
+        <v>612369.92624694854</v>
       </c>
     </row>
     <row r="246" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C246">
         <v>226</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E246" s="6">
         <f t="shared" si="8"/>
-        <v>23400.50678639135</v>
-      </c>
-      <c r="F246" s="7">
-        <f t="shared" si="7"/>
-        <v>2340050.6786391349</v>
+        <v>6167.5770968522584</v>
+      </c>
+      <c r="F246" s="6">
+        <f t="shared" si="7"/>
+        <v>616757.70968522585</v>
       </c>
     </row>
     <row r="247" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C247">
         <v>227</v>
       </c>
-      <c r="E247" s="7">
+      <c r="E247" s="6">
         <f t="shared" si="8"/>
-        <v>23593.044722904207</v>
-      </c>
-      <c r="F247" s="7">
-        <f t="shared" si="7"/>
-        <v>2359304.4722904209</v>
+        <v>6211.5735228010099</v>
+      </c>
+      <c r="F247" s="6">
+        <f t="shared" si="7"/>
+        <v>621157.35228010104</v>
       </c>
     </row>
     <row r="248" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C248">
         <v>228</v>
       </c>
-      <c r="E248" s="7">
+      <c r="E248" s="6">
         <f t="shared" si="8"/>
-        <v>23786.310077559971</v>
-      </c>
-      <c r="F248" s="7">
-        <f t="shared" si="7"/>
-        <v>2378631.0077559971</v>
+        <v>6255.6883362927956</v>
+      </c>
+      <c r="F248" s="6">
+        <f t="shared" si="7"/>
+        <v>625568.83362927951</v>
       </c>
     </row>
     <row r="249" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C249">
         <v>229</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E249" s="6">
         <f t="shared" si="8"/>
-        <v>23980.302390070217</v>
-      </c>
-      <c r="F249" s="7">
-        <f t="shared" si="7"/>
-        <v>2398030.2390070218</v>
+        <v>6299.9213345501576</v>
+      </c>
+      <c r="F249" s="6">
+        <f t="shared" si="7"/>
+        <v>629992.13345501572</v>
       </c>
     </row>
     <row r="250" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C250">
         <v>230</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E250" s="6">
         <f t="shared" si="8"/>
-        <v>24175.021202450265</v>
-      </c>
-      <c r="F250" s="7">
-        <f t="shared" si="7"/>
-        <v>2417502.1202450264</v>
+        <v>6344.2723160281521</v>
+      </c>
+      <c r="F250" s="6">
+        <f t="shared" si="7"/>
+        <v>634427.23160281521</v>
       </c>
     </row>
     <row r="251" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C251">
         <v>231</v>
       </c>
-      <c r="E251" s="7">
+      <c r="E251" s="6">
         <f t="shared" si="8"/>
-        <v>24370.466058997612</v>
-      </c>
-      <c r="F251" s="7">
-        <f t="shared" si="7"/>
-        <v>2437046.6058997614</v>
+        <v>6388.7410804014562</v>
+      </c>
+      <c r="F251" s="6">
+        <f t="shared" si="7"/>
+        <v>638874.1080401456</v>
       </c>
     </row>
     <row r="252" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C252">
         <v>232</v>
       </c>
-      <c r="E252" s="7">
+      <c r="E252" s="6">
         <f t="shared" si="8"/>
-        <v>24566.636506270894</v>
-      </c>
-      <c r="F252" s="7">
-        <f t="shared" si="7"/>
-        <v>2456663.6506270892</v>
+        <v>6433.327428551821</v>
+      </c>
+      <c r="F252" s="6">
+        <f t="shared" si="7"/>
+        <v>643332.74285518215</v>
       </c>
     </row>
     <row r="253" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C253">
         <v>233</v>
       </c>
-      <c r="E253" s="7">
+      <c r="E253" s="6">
         <f t="shared" si="8"/>
-        <v>24763.532093068749</v>
-      </c>
-      <c r="F253" s="7">
-        <f t="shared" si="7"/>
-        <v>2476353.2093068748</v>
+        <v>6478.0311625555196</v>
+      </c>
+      <c r="F253" s="6">
+        <f t="shared" si="7"/>
+        <v>647803.11625555193</v>
       </c>
     </row>
     <row r="254" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C254">
         <v>234</v>
       </c>
-      <c r="E254" s="7">
+      <c r="E254" s="6">
         <f t="shared" si="8"/>
-        <v>24961.152370409342</v>
-      </c>
-      <c r="F254" s="7">
-        <f t="shared" si="7"/>
-        <v>2496115.2370409342</v>
+        <v>6522.8520856711739</v>
+      </c>
+      <c r="F254" s="6">
+        <f t="shared" si="7"/>
+        <v>652285.20856711734</v>
       </c>
     </row>
     <row r="255" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C255">
         <v>235</v>
       </c>
-      <c r="E255" s="7">
+      <c r="E255" s="6">
         <f t="shared" si="8"/>
-        <v>25159.496891509734</v>
-      </c>
-      <c r="F255" s="7">
-        <f t="shared" si="7"/>
-        <v>2515949.6891509732</v>
+        <v>6567.7900023276025</v>
+      </c>
+      <c r="F255" s="6">
+        <f t="shared" si="7"/>
+        <v>656779.00023276021</v>
       </c>
     </row>
     <row r="256" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C256">
         <v>236</v>
       </c>
-      <c r="E256" s="7">
+      <c r="E256" s="6">
         <f t="shared" si="8"/>
-        <v>25358.565211766188</v>
-      </c>
-      <c r="F256" s="7">
-        <f t="shared" si="7"/>
-        <v>2535856.521176619</v>
+        <v>6612.8447181119282</v>
+      </c>
+      <c r="F256" s="6">
+        <f t="shared" si="7"/>
+        <v>661284.47181119281</v>
       </c>
     </row>
     <row r="257" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C257">
         <v>237</v>
       </c>
-      <c r="E257" s="7">
+      <c r="E257" s="6">
         <f t="shared" si="8"/>
-        <v>25558.356888733873</v>
-      </c>
-      <c r="F257" s="7">
-        <f t="shared" si="7"/>
-        <v>2555835.6888733874</v>
+        <v>6658.0160397578002</v>
+      </c>
+      <c r="F257" s="6">
+        <f t="shared" si="7"/>
+        <v>665801.60397578008</v>
       </c>
     </row>
     <row r="258" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C258">
         <v>238</v>
       </c>
-      <c r="E258" s="7">
+      <c r="E258" s="6">
         <f t="shared" si="8"/>
-        <v>25758.871482107639</v>
-      </c>
-      <c r="F258" s="7">
-        <f t="shared" si="7"/>
-        <v>2575887.1482107639</v>
+        <v>6703.3037751338798</v>
+      </c>
+      <c r="F258" s="6">
+        <f t="shared" si="7"/>
+        <v>670330.37751338794</v>
       </c>
     </row>
     <row r="259" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C259">
         <v>239</v>
       </c>
-      <c r="E259" s="7">
+      <c r="E259" s="6">
         <f t="shared" si="8"/>
-        <v>25960.108553702619</v>
-      </c>
-      <c r="F259" s="7">
-        <f t="shared" si="7"/>
-        <v>2596010.8553702617</v>
+        <v>6748.7077332323561</v>
+      </c>
+      <c r="F259" s="6">
+        <f t="shared" si="7"/>
+        <v>674870.77332323557</v>
       </c>
     </row>
     <row r="260" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C260">
         <v>240</v>
       </c>
-      <c r="E260" s="7">
+      <c r="E260" s="6">
         <f t="shared" si="8"/>
-        <v>26162.06766743504</v>
-      </c>
-      <c r="F260" s="7">
-        <f t="shared" si="7"/>
-        <v>2616206.766743504</v>
+        <v>6794.2277241577567</v>
+      </c>
+      <c r="F260" s="6">
+        <f t="shared" si="7"/>
+        <v>679422.77241577569</v>
       </c>
     </row>
     <row r="261" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C261">
         <v>241</v>
       </c>
-      <c r="E261" s="7">
+      <c r="E261" s="6">
         <f t="shared" si="8"/>
-        <v>26364.748389303684</v>
-      </c>
-      <c r="F261" s="7">
-        <f t="shared" si="7"/>
-        <v>2636474.8389303684</v>
+        <v>6839.863559115819</v>
+      </c>
+      <c r="F261" s="6">
+        <f t="shared" si="7"/>
+        <v>683986.35591158189</v>
       </c>
     </row>
     <row r="262" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C262">
         <v>242</v>
       </c>
-      <c r="E262" s="7">
+      <c r="E262" s="6">
         <f t="shared" si="8"/>
-        <v>26568.150287371045</v>
-      </c>
-      <c r="F262" s="7">
-        <f t="shared" si="7"/>
-        <v>2656815.0287371045</v>
+        <v>6885.6150504025745</v>
+      </c>
+      <c r="F262" s="6">
+        <f t="shared" si="7"/>
+        <v>688561.50504025747</v>
       </c>
     </row>
     <row r="263" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C263">
         <v>243</v>
       </c>
-      <c r="E263" s="7">
+      <c r="E263" s="6">
         <f t="shared" si="8"/>
-        <v>26772.272931745138</v>
-      </c>
-      <c r="F263" s="7">
-        <f t="shared" si="7"/>
-        <v>2677227.2931745136</v>
+        <v>6931.4820113935148</v>
+      </c>
+      <c r="F263" s="6">
+        <f t="shared" si="7"/>
+        <v>693148.20113935147</v>
       </c>
     </row>
     <row r="264" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C264">
         <v>244</v>
       </c>
-      <c r="E264" s="7">
+      <c r="E264" s="6">
         <f t="shared" si="8"/>
-        <v>26977.115894561535</v>
-      </c>
-      <c r="F264" s="7">
-        <f t="shared" si="7"/>
-        <v>2697711.5894561536</v>
+        <v>6977.4642565330951</v>
+      </c>
+      <c r="F264" s="6">
+        <f t="shared" si="7"/>
+        <v>697746.42565330956</v>
       </c>
     </row>
     <row r="265" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C265">
         <v>245</v>
       </c>
-      <c r="E265" s="7">
+      <c r="E265" s="6">
         <f t="shared" si="8"/>
-        <v>27182.678749965271</v>
-      </c>
-      <c r="F265" s="7">
-        <f t="shared" si="7"/>
-        <v>2718267.8749965271</v>
+        <v>7023.5616013240633</v>
+      </c>
+      <c r="F265" s="6">
+        <f t="shared" si="7"/>
+        <v>702356.16013240628</v>
       </c>
     </row>
     <row r="266" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C266">
         <v>246</v>
       </c>
-      <c r="E266" s="7">
+      <c r="E266" s="6">
         <f t="shared" si="8"/>
-        <v>27388.9610740934</v>
-      </c>
-      <c r="F266" s="7">
-        <f t="shared" si="7"/>
-        <v>2738896.1074093399</v>
+        <v>7069.7738623172781</v>
+      </c>
+      <c r="F266" s="6">
+        <f t="shared" si="7"/>
+        <v>706977.38623172778</v>
       </c>
     </row>
     <row r="267" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C267">
         <v>247</v>
       </c>
-      <c r="E267" s="7">
+      <c r="E267" s="6">
         <f t="shared" si="8"/>
-        <v>27595.962445057638</v>
-      </c>
-      <c r="F267" s="7">
-        <f t="shared" si="7"/>
-        <v>2759596.244505764</v>
+        <v>7116.100857101459</v>
+      </c>
+      <c r="F267" s="6">
+        <f t="shared" si="7"/>
+        <v>711610.08571014588</v>
       </c>
     </row>
     <row r="268" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C268">
         <v>248</v>
       </c>
-      <c r="E268" s="7">
+      <c r="E268" s="6">
         <f t="shared" si="8"/>
-        <v>27803.68244292702</v>
-      </c>
-      <c r="F268" s="7">
-        <f t="shared" si="7"/>
-        <v>2780368.2442927021</v>
+        <v>7162.5424042930845</v>
+      </c>
+      <c r="F268" s="6">
+        <f t="shared" si="7"/>
+        <v>716254.2404293085</v>
       </c>
     </row>
     <row r="269" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C269">
         <v>249</v>
       </c>
-      <c r="E269" s="7">
+      <c r="E269" s="6">
         <f t="shared" si="8"/>
-        <v>28012.120649711058</v>
-      </c>
-      <c r="F269" s="7">
-        <f t="shared" si="7"/>
-        <v>2801212.0649711057</v>
+        <v>7209.0983235265667</v>
+      </c>
+      <c r="F269" s="6">
+        <f t="shared" si="7"/>
+        <v>720909.83235265664</v>
       </c>
     </row>
     <row r="270" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C270">
         <v>250</v>
       </c>
-      <c r="E270" s="7">
+      <c r="E270" s="6">
         <f t="shared" si="8"/>
-        <v>28221.276649343083</v>
-      </c>
-      <c r="F270" s="7">
-        <f t="shared" si="7"/>
-        <v>2822127.6649343083</v>
+        <v>7255.7684354443936</v>
+      </c>
+      <c r="F270" s="6">
+        <f t="shared" si="7"/>
+        <v>725576.84354443941</v>
       </c>
     </row>
     <row r="271" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C271">
         <v>251</v>
       </c>
-      <c r="E271" s="7">
+      <c r="E271" s="6">
         <f t="shared" si="8"/>
-        <v>28431.150027663549</v>
-      </c>
-      <c r="F271" s="7">
-        <f t="shared" si="7"/>
-        <v>2843115.0027663549</v>
+        <v>7302.5525616875329</v>
+      </c>
+      <c r="F271" s="6">
+        <f t="shared" si="7"/>
+        <v>730255.25616875326</v>
       </c>
     </row>
     <row r="272" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C272">
         <v>252</v>
       </c>
-      <c r="E272" s="7">
+      <c r="E272" s="6">
         <f t="shared" si="8"/>
-        <v>28641.740372403849</v>
-      </c>
-      <c r="F272" s="7">
-        <f t="shared" si="7"/>
-        <v>2864174.0372403851</v>
+        <v>7349.4505248858441</v>
+      </c>
+      <c r="F272" s="6">
+        <f t="shared" si="7"/>
+        <v>734945.05248858442</v>
       </c>
     </row>
     <row r="273" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C273">
         <v>253</v>
       </c>
-      <c r="E273" s="7">
+      <c r="E273" s="6">
         <f t="shared" si="8"/>
-        <v>28853.047273170007</v>
-      </c>
-      <c r="F273" s="7">
-        <f t="shared" si="7"/>
-        <v>2885304.7273170007</v>
+        <v>7396.4621486487713</v>
+      </c>
+      <c r="F273" s="6">
+        <f t="shared" si="7"/>
+        <v>739646.21486487717</v>
       </c>
     </row>
     <row r="274" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C274">
         <v>254</v>
       </c>
-      <c r="E274" s="7">
+      <c r="E274" s="6">
         <f t="shared" si="8"/>
-        <v>29065.070321427022</v>
-      </c>
-      <c r="F274" s="7">
-        <f t="shared" si="7"/>
-        <v>2906507.032142702</v>
+        <v>7443.587257556017</v>
+      </c>
+      <c r="F274" s="6">
+        <f t="shared" si="7"/>
+        <v>744358.72575560166</v>
       </c>
     </row>
     <row r="275" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C275">
         <v>255</v>
       </c>
-      <c r="E275" s="7">
+      <c r="E275" s="6">
         <f t="shared" si="8"/>
-        <v>29277.809110483064</v>
-      </c>
-      <c r="F275" s="7">
-        <f t="shared" si="7"/>
-        <v>2927780.9110483062</v>
+        <v>7490.8256771484239</v>
+      </c>
+      <c r="F275" s="6">
+        <f t="shared" si="7"/>
+        <v>749082.56771484239</v>
       </c>
     </row>
     <row r="276" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C276">
         <v>256</v>
       </c>
-      <c r="E276" s="7">
+      <c r="E276" s="6">
         <f t="shared" si="8"/>
-        <v>29491.263235473787</v>
-      </c>
-      <c r="F276" s="7">
-        <f t="shared" si="7"/>
-        <v>2949126.3235473786</v>
+        <v>7538.1772339189747</v>
+      </c>
+      <c r="F276" s="6">
+        <f t="shared" si="7"/>
+        <v>753817.72339189751</v>
       </c>
     </row>
     <row r="277" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C277">
         <v>257</v>
       </c>
-      <c r="E277" s="7">
+      <c r="E277" s="6">
         <f t="shared" si="8"/>
-        <v>29705.43229334733</v>
-      </c>
-      <c r="F277" s="7">
-        <f t="shared" si="7"/>
-        <v>2970543.229334733</v>
+        <v>7585.6417553038691</v>
+      </c>
+      <c r="F277" s="6">
+        <f t="shared" si="7"/>
+        <v>758564.17553038686</v>
       </c>
     </row>
     <row r="278" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C278">
         <v>258</v>
       </c>
-      <c r="E278" s="7">
+      <c r="E278" s="6">
         <f t="shared" si="8"/>
-        <v>29920.315882848656</v>
-      </c>
-      <c r="F278" s="7">
+        <v>7633.2190696737043</v>
+      </c>
+      <c r="F278" s="6">
         <f t="shared" ref="F278:F283" si="9">E278*100</f>
-        <v>2992031.5882848655</v>
+        <v>763321.90696737042</v>
       </c>
     </row>
     <row r="279" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C279">
         <v>259</v>
       </c>
-      <c r="E279" s="7">
+      <c r="E279" s="6">
         <f t="shared" si="8"/>
-        <v>30135.913604505153</v>
-      </c>
-      <c r="F279" s="7">
+        <v>7680.9090063248959</v>
+      </c>
+      <c r="F279" s="6">
         <f t="shared" si="9"/>
-        <v>3013591.3604505151</v>
+        <v>768090.90063248959</v>
       </c>
     </row>
     <row r="280" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C280">
         <v>260</v>
       </c>
-      <c r="E280" s="7">
+      <c r="E280" s="6">
         <f t="shared" si="8"/>
-        <v>30352.225060611603</v>
-      </c>
-      <c r="F280" s="7">
+        <v>7728.7113954710567</v>
+      </c>
+      <c r="F280" s="6">
         <f t="shared" si="9"/>
-        <v>3035222.5060611605</v>
+        <v>772871.13954710565</v>
       </c>
     </row>
     <row r="281" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C281">
         <v>261</v>
       </c>
-      <c r="E281" s="7">
+      <c r="E281" s="6">
         <f t="shared" si="8"/>
-        <v>30569.249855215527</v>
-      </c>
-      <c r="F281" s="7">
+        <v>7776.6260682345983</v>
+      </c>
+      <c r="F281" s="6">
         <f t="shared" si="9"/>
-        <v>3056924.9855215526</v>
+        <v>777662.60682345985</v>
       </c>
     </row>
     <row r="282" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C282">
         <v>262</v>
       </c>
-      <c r="E282" s="7">
+      <c r="E282" s="6">
         <f t="shared" si="8"/>
-        <v>30786.987594102735</v>
-      </c>
-      <c r="F282" s="7">
+        <v>7824.6528566383167</v>
+      </c>
+      <c r="F282" s="6">
         <f t="shared" si="9"/>
-        <v>3078698.7594102733</v>
+        <v>782465.28566383163</v>
       </c>
     </row>
     <row r="283" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C283">
         <v>263</v>
       </c>
-      <c r="E283" s="7">
+      <c r="E283" s="6">
         <f t="shared" si="8"/>
-        <v>31005.437884783347</v>
-      </c>
-      <c r="F283" s="7">
+        <v>7872.7915935973251</v>
+      </c>
+      <c r="F283" s="6">
         <f t="shared" si="9"/>
-        <v>3100543.7884783349</v>
+        <v>787279.15935973253</v>
       </c>
     </row>
     <row r="284" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E293" s="7"/>
-      <c r="F293" s="7"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E294" s="7"/>
-      <c r="F294" s="7"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E295" s="7"/>
-      <c r="F295" s="7"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E296" s="7"/>
-      <c r="F296" s="7"/>
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
     </row>
     <row r="297" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
     </row>
     <row r="298" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E298" s="7"/>
-      <c r="F298" s="7"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
     </row>
     <row r="299" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E299" s="7"/>
-      <c r="F299" s="7"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
     </row>
     <row r="300" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E301" s="7"/>
-      <c r="F301" s="7"/>
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E302" s="7"/>
-      <c r="F302" s="7"/>
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
     </row>
     <row r="304" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E304" s="7"/>
-      <c r="F304" s="7"/>
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
     </row>
     <row r="305" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E306" s="7"/>
-      <c r="F306" s="7"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E307" s="7"/>
-      <c r="F307" s="7"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
     </row>
     <row r="308" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
     </row>
     <row r="309" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
     </row>
     <row r="310" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
     </row>
     <row r="311" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E311" s="7"/>
-      <c r="F311" s="7"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
     </row>
     <row r="312" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E312" s="7"/>
-      <c r="F312" s="7"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E313" s="7"/>
-      <c r="F313" s="7"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
     </row>
     <row r="314" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
     </row>
     <row r="315" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
     </row>
     <row r="316" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E316" s="7"/>
-      <c r="F316" s="7"/>
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
     </row>
     <row r="317" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
     </row>
     <row r="318" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E318" s="7"/>
-      <c r="F318" s="7"/>
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
     </row>
     <row r="319" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E319" s="7"/>
-      <c r="F319" s="7"/>
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
     </row>
     <row r="320" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E320" s="7"/>
-      <c r="F320" s="7"/>
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
     </row>
     <row r="321" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E321" s="7"/>
-      <c r="F321" s="7"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
     </row>
     <row r="322" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E322" s="7"/>
-      <c r="F322" s="7"/>
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
     </row>
     <row r="323" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E323" s="7"/>
-      <c r="F323" s="7"/>
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
     </row>
     <row r="324" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E324" s="7"/>
-      <c r="F324" s="7"/>
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
     </row>
     <row r="325" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E325" s="7"/>
-      <c r="F325" s="7"/>
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E326" s="7"/>
-      <c r="F326" s="7"/>
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E327" s="7"/>
-      <c r="F327" s="7"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
     </row>
     <row r="329" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
     </row>
     <row r="330" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E330" s="7"/>
-      <c r="F330" s="7"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E331" s="7"/>
-      <c r="F331" s="7"/>
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
     </row>
     <row r="332" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
     </row>
     <row r="333" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
     </row>
     <row r="334" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E335" s="7"/>
-      <c r="F335" s="7"/>
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E336" s="7"/>
-      <c r="F336" s="7"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E337" s="7"/>
-      <c r="F337" s="7"/>
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E338" s="7"/>
-      <c r="F338" s="7"/>
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E339" s="7"/>
-      <c r="F339" s="7"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E340" s="7"/>
-      <c r="F340" s="7"/>
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E341" s="7"/>
-      <c r="F341" s="7"/>
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
     </row>
     <row r="342" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E342" s="7"/>
-      <c r="F342" s="7"/>
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
     </row>
     <row r="343" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E343" s="7"/>
-      <c r="F343" s="7"/>
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E344" s="7"/>
-      <c r="F344" s="7"/>
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E345" s="7"/>
-      <c r="F345" s="7"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E346" s="7"/>
-      <c r="F346" s="7"/>
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
     </row>
     <row r="347" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E347" s="7"/>
-      <c r="F347" s="7"/>
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E348" s="7"/>
-      <c r="F348" s="7"/>
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E349" s="7"/>
-      <c r="F349" s="7"/>
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
     </row>
     <row r="350" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E350" s="7"/>
-      <c r="F350" s="7"/>
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
     </row>
     <row r="351" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E351" s="7"/>
-      <c r="F351" s="7"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
     </row>
     <row r="352" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E352" s="7"/>
-      <c r="F352" s="7"/>
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
     </row>
     <row r="353" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E353" s="7"/>
-      <c r="F353" s="7"/>
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
     </row>
     <row r="354" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E354" s="7"/>
-      <c r="F354" s="7"/>
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
     </row>
     <row r="355" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E355" s="7"/>
-      <c r="F355" s="7"/>
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
     </row>
     <row r="356" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E356" s="7"/>
-      <c r="F356" s="7"/>
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
     </row>
     <row r="357" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E357" s="7"/>
-      <c r="F357" s="7"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
     </row>
     <row r="358" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E358" s="7"/>
-      <c r="F358" s="7"/>
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
     </row>
     <row r="359" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E359" s="7"/>
-      <c r="F359" s="7"/>
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
     </row>
     <row r="360" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E360" s="7"/>
-      <c r="F360" s="7"/>
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
     </row>
     <row r="361" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E361" s="7"/>
-      <c r="F361" s="7"/>
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
     </row>
     <row r="362" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E362" s="7"/>
-      <c r="F362" s="7"/>
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
     </row>
     <row r="363" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E363" s="7"/>
-      <c r="F363" s="7"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
     </row>
     <row r="364" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E364" s="7"/>
-      <c r="F364" s="7"/>
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
     </row>
     <row r="365" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E365" s="7"/>
-      <c r="F365" s="7"/>
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
     </row>
     <row r="366" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E366" s="7"/>
-      <c r="F366" s="7"/>
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
     </row>
     <row r="367" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E367" s="7"/>
-      <c r="F367" s="7"/>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
     </row>
     <row r="368" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E368" s="7"/>
-      <c r="F368" s="7"/>
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
     </row>
     <row r="369" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E369" s="7"/>
-      <c r="F369" s="7"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
     </row>
     <row r="370" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E370" s="7"/>
-      <c r="F370" s="7"/>
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
     </row>
     <row r="371" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E371" s="7"/>
-      <c r="F371" s="7"/>
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
     </row>
     <row r="372" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E372" s="7"/>
-      <c r="F372" s="7"/>
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
     </row>
     <row r="373" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E373" s="7"/>
-      <c r="F373" s="7"/>
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
     </row>
     <row r="374" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E374" s="7"/>
-      <c r="F374" s="7"/>
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E375" s="7"/>
-      <c r="F375" s="7"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
     </row>
     <row r="376" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E376" s="7"/>
-      <c r="F376" s="7"/>
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
     </row>
     <row r="377" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E377" s="7"/>
-      <c r="F377" s="7"/>
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
     </row>
     <row r="378" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E378" s="7"/>
-      <c r="F378" s="7"/>
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E379" s="7"/>
-      <c r="F379" s="7"/>
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
     </row>
     <row r="380" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E380" s="7"/>
-      <c r="F380" s="7"/>
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
     </row>
     <row r="381" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E381" s="7"/>
-      <c r="F381" s="7"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
     </row>
     <row r="382" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E382" s="7"/>
-      <c r="F382" s="7"/>
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E383" s="7"/>
-      <c r="F383" s="7"/>
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
     </row>
     <row r="384" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E384" s="7"/>
-      <c r="F384" s="7"/>
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
     </row>
     <row r="385" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E385" s="7"/>
-      <c r="F385" s="7"/>
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
     </row>
     <row r="386" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E386" s="7"/>
-      <c r="F386" s="7"/>
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
     </row>
     <row r="387" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E387" s="7"/>
-      <c r="F387" s="7"/>
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
     </row>
     <row r="388" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E388" s="7"/>
-      <c r="F388" s="7"/>
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
     </row>
     <row r="389" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E389" s="7"/>
-      <c r="F389" s="7"/>
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
     </row>
     <row r="390" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E390" s="7"/>
-      <c r="F390" s="7"/>
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
     </row>
     <row r="391" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E391" s="7"/>
-      <c r="F391" s="7"/>
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
     </row>
     <row r="392" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E392" s="7"/>
-      <c r="F392" s="7"/>
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
     </row>
     <row r="393" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E393" s="7"/>
-      <c r="F393" s="7"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
     </row>
     <row r="394" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E394" s="7"/>
-      <c r="F394" s="7"/>
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
     </row>
     <row r="395" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E395" s="7"/>
-      <c r="F395" s="7"/>
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
     </row>
     <row r="396" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E396" s="7"/>
-      <c r="F396" s="7"/>
+      <c r="E396" s="6"/>
+      <c r="F396" s="6"/>
     </row>
     <row r="397" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E397" s="7"/>
-      <c r="F397" s="7"/>
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
     </row>
     <row r="398" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E398" s="7"/>
-      <c r="F398" s="7"/>
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
     </row>
     <row r="399" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E399" s="7"/>
-      <c r="F399" s="7"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
     </row>
     <row r="400" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E400" s="7"/>
-      <c r="F400" s="7"/>
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
     </row>
     <row r="401" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E401" s="7"/>
-      <c r="F401" s="7"/>
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
     </row>
     <row r="402" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E402" s="7"/>
-      <c r="F402" s="7"/>
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
     </row>
     <row r="403" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E403" s="7"/>
-      <c r="F403" s="7"/>
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
     </row>
     <row r="404" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E404" s="7"/>
-      <c r="F404" s="7"/>
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
     </row>
     <row r="405" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E405" s="7"/>
-      <c r="F405" s="7"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
     </row>
     <row r="406" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E406" s="7"/>
-      <c r="F406" s="7"/>
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
     </row>
     <row r="407" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E407" s="7"/>
-      <c r="F407" s="7"/>
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
     </row>
     <row r="408" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E408" s="7"/>
+      <c r="E408" s="6"/>
     </row>
     <row r="409" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E409" s="7"/>
+      <c r="E409" s="6"/>
     </row>
     <row r="410" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E410" s="7"/>
+      <c r="E410" s="6"/>
     </row>
     <row r="411" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E411" s="7"/>
+      <c r="E411" s="6"/>
     </row>
     <row r="412" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E412" s="7"/>
+      <c r="E412" s="6"/>
     </row>
     <row r="413" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E413" s="7"/>
+      <c r="E413" s="6"/>
     </row>
     <row r="414" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E414" s="7"/>
+      <c r="E414" s="6"/>
     </row>
     <row r="415" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E415" s="7"/>
+      <c r="E415" s="6"/>
     </row>
     <row r="416" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E416" s="7"/>
+      <c r="E416" s="6"/>
     </row>
     <row r="417" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E417" s="7"/>
+      <c r="E417" s="6"/>
     </row>
     <row r="418" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E418" s="7"/>
+      <c r="E418" s="6"/>
     </row>
     <row r="419" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E419" s="7"/>
+      <c r="E419" s="6"/>
     </row>
     <row r="420" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E420" s="7"/>
+      <c r="E420" s="6"/>
     </row>
     <row r="421" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E421" s="7"/>
+      <c r="E421" s="6"/>
     </row>
     <row r="422" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E422" s="7"/>
+      <c r="E422" s="6"/>
     </row>
     <row r="423" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E423" s="7"/>
+      <c r="E423" s="6"/>
     </row>
     <row r="424" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E424" s="7"/>
+      <c r="E424" s="6"/>
     </row>
     <row r="425" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E425" s="7"/>
+      <c r="E425" s="6"/>
     </row>
     <row r="426" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E426" s="7"/>
+      <c r="E426" s="6"/>
     </row>
     <row r="427" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E427" s="7"/>
+      <c r="E427" s="6"/>
     </row>
     <row r="428" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E428" s="7"/>
+      <c r="E428" s="6"/>
     </row>
     <row r="429" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E429" s="7"/>
+      <c r="E429" s="6"/>
     </row>
     <row r="430" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E430" s="7"/>
+      <c r="E430" s="6"/>
     </row>
     <row r="431" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E431" s="7"/>
+      <c r="E431" s="6"/>
     </row>
     <row r="432" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E432" s="7"/>
+      <c r="E432" s="6"/>
     </row>
     <row r="433" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E433" s="7"/>
+      <c r="E433" s="6"/>
     </row>
     <row r="434" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E434" s="7"/>
+      <c r="E434" s="6"/>
     </row>
     <row r="435" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E435" s="7"/>
+      <c r="E435" s="6"/>
     </row>
     <row r="436" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E436" s="7"/>
+      <c r="E436" s="6"/>
     </row>
     <row r="437" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E437" s="7"/>
+      <c r="E437" s="6"/>
     </row>
     <row r="438" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E438" s="7"/>
+      <c r="E438" s="6"/>
     </row>
     <row r="439" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E439" s="7"/>
+      <c r="E439" s="6"/>
     </row>
     <row r="440" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E440" s="7"/>
+      <c r="E440" s="6"/>
     </row>
     <row r="441" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E441" s="7"/>
+      <c r="E441" s="6"/>
     </row>
     <row r="442" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E442" s="7"/>
+      <c r="E442" s="6"/>
     </row>
     <row r="443" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E443" s="7"/>
+      <c r="E443" s="6"/>
     </row>
     <row r="444" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E444" s="7"/>
+      <c r="E444" s="6"/>
     </row>
     <row r="445" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E445" s="7"/>
+      <c r="E445" s="6"/>
     </row>
     <row r="446" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E446" s="7"/>
+      <c r="E446" s="6"/>
     </row>
     <row r="447" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E447" s="7"/>
+      <c r="E447" s="6"/>
     </row>
     <row r="448" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E448" s="7"/>
+      <c r="E448" s="6"/>
     </row>
     <row r="449" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E449" s="7"/>
+      <c r="E449" s="6"/>
     </row>
     <row r="450" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E450" s="7"/>
+      <c r="E450" s="6"/>
     </row>
     <row r="451" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E451" s="7"/>
+      <c r="E451" s="6"/>
     </row>
     <row r="452" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E452" s="7"/>
+      <c r="E452" s="6"/>
     </row>
     <row r="453" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E453" s="7"/>
+      <c r="E453" s="6"/>
     </row>
     <row r="454" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E454" s="7"/>
+      <c r="E454" s="6"/>
     </row>
     <row r="455" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E455" s="7"/>
+      <c r="E455" s="6"/>
     </row>
     <row r="456" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E456" s="7"/>
+      <c r="E456" s="6"/>
     </row>
     <row r="457" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E457" s="7"/>
+      <c r="E457" s="6"/>
     </row>
     <row r="458" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E458" s="7"/>
+      <c r="E458" s="6"/>
     </row>
     <row r="459" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E459" s="7"/>
+      <c r="E459" s="6"/>
     </row>
     <row r="460" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E460" s="7"/>
+      <c r="E460" s="6"/>
     </row>
     <row r="461" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E461" s="7"/>
+      <c r="E461" s="6"/>
     </row>
     <row r="462" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E462" s="7"/>
+      <c r="E462" s="6"/>
     </row>
     <row r="463" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E463" s="7"/>
+      <c r="E463" s="6"/>
     </row>
     <row r="464" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E464" s="7"/>
+      <c r="E464" s="6"/>
     </row>
     <row r="465" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E465" s="7"/>
+      <c r="E465" s="6"/>
     </row>
     <row r="466" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E466" s="7"/>
+      <c r="E466" s="6"/>
     </row>
     <row r="467" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E467" s="7"/>
+      <c r="E467" s="6"/>
     </row>
     <row r="468" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E468" s="7"/>
+      <c r="E468" s="6"/>
     </row>
     <row r="469" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E469" s="7"/>
+      <c r="E469" s="6"/>
     </row>
     <row r="470" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E470" s="7"/>
+      <c r="E470" s="6"/>
     </row>
     <row r="471" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E471" s="7"/>
+      <c r="E471" s="6"/>
     </row>
     <row r="472" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E472" s="7"/>
+      <c r="E472" s="6"/>
     </row>
     <row r="473" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E473" s="7"/>
+      <c r="E473" s="6"/>
     </row>
     <row r="474" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E474" s="7"/>
+      <c r="E474" s="6"/>
     </row>
     <row r="475" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E475" s="7"/>
+      <c r="E475" s="6"/>
     </row>
     <row r="476" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E476" s="7"/>
+      <c r="E476" s="6"/>
     </row>
     <row r="477" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E477" s="7"/>
+      <c r="E477" s="6"/>
     </row>
     <row r="478" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E478" s="7"/>
+      <c r="E478" s="6"/>
     </row>
     <row r="479" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E479" s="7"/>
+      <c r="E479" s="6"/>
     </row>
     <row r="480" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E480" s="7"/>
+      <c r="E480" s="6"/>
     </row>
     <row r="481" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E481" s="7"/>
+      <c r="E481" s="6"/>
     </row>
     <row r="482" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E482" s="7"/>
+      <c r="E482" s="6"/>
     </row>
     <row r="483" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E483" s="7"/>
+      <c r="E483" s="6"/>
     </row>
     <row r="484" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E484" s="7"/>
+      <c r="E484" s="6"/>
     </row>
     <row r="485" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E485" s="7"/>
+      <c r="E485" s="6"/>
     </row>
     <row r="486" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E486" s="7"/>
+      <c r="E486" s="6"/>
     </row>
     <row r="487" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E487" s="7"/>
+      <c r="E487" s="6"/>
     </row>
     <row r="488" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E488" s="7"/>
+      <c r="E488" s="6"/>
     </row>
     <row r="489" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E489" s="7"/>
+      <c r="E489" s="6"/>
     </row>
     <row r="490" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E490" s="7"/>
+      <c r="E490" s="6"/>
     </row>
     <row r="491" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E491" s="7"/>
+      <c r="E491" s="6"/>
     </row>
     <row r="492" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E492" s="7"/>
+      <c r="E492" s="6"/>
     </row>
     <row r="493" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E493" s="7"/>
+      <c r="E493" s="6"/>
     </row>
     <row r="494" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E494" s="7"/>
+      <c r="E494" s="6"/>
     </row>
     <row r="495" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E495" s="7"/>
+      <c r="E495" s="6"/>
     </row>
     <row r="496" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E496" s="7"/>
+      <c r="E496" s="6"/>
     </row>
     <row r="497" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E497" s="7"/>
+      <c r="E497" s="6"/>
     </row>
     <row r="498" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E498" s="7"/>
+      <c r="E498" s="6"/>
     </row>
     <row r="499" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E499" s="7"/>
+      <c r="E499" s="6"/>
     </row>
     <row r="500" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E500" s="7"/>
+      <c r="E500" s="6"/>
     </row>
     <row r="501" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E501" s="7"/>
+      <c r="E501" s="6"/>
     </row>
     <row r="502" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E502" s="7"/>
+      <c r="E502" s="6"/>
     </row>
     <row r="503" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E503" s="7"/>
+      <c r="E503" s="6"/>
     </row>
     <row r="504" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E504" s="7"/>
+      <c r="E504" s="6"/>
     </row>
     <row r="505" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E505" s="7"/>
+      <c r="E505" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
